--- a/general_python/datalist/20221110/TAKAOKI_swaytime_10-Nov-2022_11_21_15.xlsx
+++ b/general_python/datalist/20221110/TAKAOKI_swaytime_10-Nov-2022_11_21_15.xlsx
@@ -1,14 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuekiyuuta/Documents/GitHub/hard_ware/general_python/datalist/20221110/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CDFDF-19ED-7946-A735-B4585F83059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -132,11 +152,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,69 +181,379 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL121"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
-    <col min="3" max="3" width="7.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.42578125" customWidth="true"/>
-    <col min="5" max="5" width="9.28515625" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="16" customWidth="true"/>
-    <col min="9" max="9" width="17" customWidth="true"/>
-    <col min="10" max="10" width="12.85546875" customWidth="true"/>
-    <col min="11" max="11" width="14" customWidth="true"/>
-    <col min="12" max="12" width="8" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="17.7109375" customWidth="true"/>
-    <col min="15" max="15" width="17.42578125" customWidth="true"/>
-    <col min="16" max="16" width="16.42578125" customWidth="true"/>
-    <col min="17" max="17" width="13.5703125" customWidth="true"/>
-    <col min="18" max="18" width="13.42578125" customWidth="true"/>
-    <col min="19" max="19" width="11" customWidth="true"/>
-    <col min="20" max="20" width="12.42578125" customWidth="true"/>
-    <col min="21" max="21" width="12.5703125" customWidth="true"/>
-    <col min="22" max="22" width="15.42578125" customWidth="true"/>
-    <col min="23" max="23" width="15.42578125" customWidth="true"/>
-    <col min="24" max="24" width="13.42578125" customWidth="true"/>
-    <col min="25" max="25" width="11.140625" customWidth="true"/>
-    <col min="26" max="26" width="12.42578125" customWidth="true"/>
-    <col min="27" max="27" width="11" customWidth="true"/>
-    <col min="28" max="28" width="14.7109375" customWidth="true"/>
-    <col min="29" max="29" width="16.42578125" customWidth="true"/>
-    <col min="30" max="30" width="15.7109375" customWidth="true"/>
-    <col min="31" max="31" width="15.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.28515625" customWidth="true"/>
-    <col min="33" max="33" width="9.42578125" customWidth="true"/>
-    <col min="34" max="34" width="12.7109375" customWidth="true"/>
-    <col min="35" max="35" width="15.85546875" customWidth="true"/>
-    <col min="36" max="36" width="17.85546875" customWidth="true"/>
-    <col min="37" max="37" width="16.28515625" customWidth="true"/>
-    <col min="38" max="38" width="17.28515625" customWidth="true"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="23" width="15.5" customWidth="1"/>
+    <col min="24" max="24" width="13.5" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="12.5" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="31" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="33" width="9.5" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.83203125" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" customWidth="1"/>
+    <col min="38" max="38" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -333,7 +669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>0</v>
       </c>
@@ -389,19 +725,19 @@
         <v>-1.0702085494995117</v>
       </c>
       <c r="S2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>-1.1372990608215332</v>
       </c>
       <c r="U2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>-1.1151123046875</v>
       </c>
       <c r="W2">
-        <v>0.06103515625</v>
+        <v>6.103515625E-2</v>
       </c>
       <c r="X2">
         <v>-1.0681636333465576</v>
@@ -425,7 +761,7 @@
         <v>0.75076830387115479</v>
       </c>
       <c r="AE2">
-        <v>0.0019791133236140013</v>
+        <v>1.9791133236140013E-3</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -440,18 +776,18 @@
         <v>0.98190000057220461</v>
       </c>
       <c r="AJ2">
-        <v>-0.050000008195638657</v>
+        <v>-5.0000008195638657E-2</v>
       </c>
       <c r="AK2">
-        <v>0.0019791133236140013</v>
+        <v>1.9791133236140013E-3</v>
       </c>
       <c r="AL2">
-        <v>0.018099999427795388</v>
+        <v>1.8099999427795388E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38">
       <c r="A3">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
         <v>-1.0687160491943359</v>
@@ -466,7 +802,8 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.0145649909973145</v>
+        <f>F2+RADIANS(G2)*(A3-A2)</f>
+        <v>2.0078201710012031</v>
       </c>
       <c r="G3">
         <v>-0.16968333721160889</v>
@@ -505,19 +842,19 @@
         <v>-1.0702062845230103</v>
       </c>
       <c r="S3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>-1.137179970741272</v>
       </c>
       <c r="U3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>-1.109619140625</v>
       </c>
       <c r="W3">
-        <v>0.09765625</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="X3">
         <v>-1.0687160491943359</v>
@@ -541,7 +878,7 @@
         <v>0.75459557771682739</v>
       </c>
       <c r="AE3">
-        <v>0.0018842995632439852</v>
+        <v>1.8842995632439852E-3</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -559,15 +896,15 @@
         <v>-2.0099999904632568</v>
       </c>
       <c r="AK3">
-        <v>0.0018842995632439852</v>
+        <v>1.8842995632439852E-3</v>
       </c>
       <c r="AL3">
-        <v>0.038200002908706621</v>
+        <v>3.8200002908706621E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38">
       <c r="A4">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B4">
         <v>-1.0691186189651489</v>
@@ -582,7 +919,8 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.0222361087799072</v>
+        <f t="shared" ref="F4:F67" si="0">F3+RADIANS(G3)*(A4-A3)</f>
+        <v>2.0075240177091915</v>
       </c>
       <c r="G4">
         <v>-0.16726620495319366</v>
@@ -621,19 +959,19 @@
         <v>-1.0596379041671753</v>
       </c>
       <c r="S4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>-1.1417323350906372</v>
       </c>
       <c r="U4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-1.0986328125</v>
       </c>
       <c r="W4">
-        <v>0.0732421875</v>
+        <v>7.32421875E-2</v>
       </c>
       <c r="X4">
         <v>-1.0691186189651489</v>
@@ -657,7 +995,7 @@
         <v>0.74693357944488525</v>
       </c>
       <c r="AE4">
-        <v>-0.0017855302430689335</v>
+        <v>-1.7855302430689335E-3</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -675,13 +1013,13 @@
         <v>2.0600001811981201</v>
       </c>
       <c r="AK4">
-        <v>-0.0017855302430689335</v>
+        <v>-1.7855302430689335E-3</v>
       </c>
       <c r="AL4">
-        <v>0.017599999904632568</v>
+        <v>1.7599999904632568E-2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>0.30000000000000004</v>
       </c>
@@ -698,7 +1036,8 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.0293188095092773</v>
+        <f t="shared" si="0"/>
+        <v>2.0072320831088168</v>
       </c>
       <c r="G5">
         <v>-0.16499458253383636</v>
@@ -737,19 +1076,19 @@
         <v>-1.0569946765899658</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>-1.1428108215332031</v>
       </c>
       <c r="U5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>-1.0931396484375</v>
       </c>
       <c r="W5">
-        <v>0.06103515625</v>
+        <v>6.103515625E-2</v>
       </c>
       <c r="X5">
         <v>-1.0665574073791504</v>
@@ -773,7 +1112,7 @@
         <v>0.75125646591186523</v>
       </c>
       <c r="AE5">
-        <v>0.0019753235392272472</v>
+        <v>1.9753235392272472E-3</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -788,18 +1127,18 @@
         <v>0.98169999718666079</v>
       </c>
       <c r="AJ5">
-        <v>-0.070000007748603821</v>
+        <v>-7.0000007748603821E-2</v>
       </c>
       <c r="AK5">
-        <v>0.0019753235392272472</v>
+        <v>1.9753235392272472E-3</v>
       </c>
       <c r="AL5">
-        <v>0.018300002813339211</v>
+        <v>1.8300002813339211E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38">
       <c r="A6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="B6">
         <v>-1.0639739036560059</v>
@@ -814,7 +1153,8 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.0359718799591064</v>
+        <f t="shared" si="0"/>
+        <v>2.0069441132375001</v>
       </c>
       <c r="G6">
         <v>-0.16250263154506683</v>
@@ -853,19 +1193,19 @@
         <v>-1.0572692155838013</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>-1.1503235101699829</v>
       </c>
       <c r="U6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>-1.087646484375</v>
       </c>
       <c r="W6">
-        <v>0.08544921875</v>
+        <v>8.544921875E-2</v>
       </c>
       <c r="X6">
         <v>-1.0639739036560059</v>
@@ -889,7 +1229,7 @@
         <v>0.75494414567947388</v>
       </c>
       <c r="AE6">
-        <v>0.0018440351122990251</v>
+        <v>1.8440351122990251E-3</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -904,16 +1244,16 @@
         <v>0.98119999766349797</v>
       </c>
       <c r="AJ6">
-        <v>-0.049999717622995377</v>
+        <v>-4.9999717622995377E-2</v>
       </c>
       <c r="AK6">
-        <v>0.0018440351122990251</v>
+        <v>1.8440351122990251E-3</v>
       </c>
       <c r="AL6">
-        <v>0.018800002336502031</v>
+        <v>1.8800002336502031E-2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -930,7 +1270,8 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.0423119068145752</v>
+        <f t="shared" si="0"/>
+        <v>2.0066604926411387</v>
       </c>
       <c r="G7">
         <v>-0.16027839481830597</v>
@@ -969,19 +1310,19 @@
         <v>-1.0572669506072998</v>
       </c>
       <c r="S7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>-1.1502043008804321</v>
       </c>
       <c r="U7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>-1.0821533203125</v>
       </c>
       <c r="W7">
-        <v>0.06103515625</v>
+        <v>6.103515625E-2</v>
       </c>
       <c r="X7">
         <v>-1.0621626377105713</v>
@@ -1005,7 +1346,7 @@
         <v>0.7581445574760437</v>
       </c>
       <c r="AE7">
-        <v>0.0017494681524112821</v>
+        <v>1.7494681524112821E-3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1023,13 +1364,13 @@
         <v>-1.9299997091293335</v>
       </c>
       <c r="AK7">
-        <v>0.0017494681524112821</v>
+        <v>1.7494681524112821E-3</v>
       </c>
       <c r="AL7">
-        <v>0.038099998235702537</v>
+        <v>3.8099998235702537E-2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>0.60000000000000009</v>
       </c>
@@ -1046,7 +1387,8 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.0484230518341064</v>
+        <f t="shared" si="0"/>
+        <v>2.0063807540701997</v>
       </c>
       <c r="G8">
         <v>-0.15813703835010529</v>
@@ -1085,19 +1427,19 @@
         <v>-1.0543469190597534</v>
       </c>
       <c r="S8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>-1.1436511278152466</v>
       </c>
       <c r="U8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>-1.07666015625</v>
       </c>
       <c r="W8">
-        <v>0.054931640625</v>
+        <v>5.4931640625E-2</v>
       </c>
       <c r="X8">
         <v>-1.0608400106430054</v>
@@ -1121,7 +1463,7 @@
         <v>0.75033962726593018</v>
       </c>
       <c r="AE8">
-        <v>-0.0017741890624165535</v>
+        <v>-1.7741890624165535E-3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1139,13 +1481,13 @@
         <v>1.8799998760223389</v>
       </c>
       <c r="AK8">
-        <v>-0.0017741890624165535</v>
+        <v>-1.7741890624165535E-3</v>
       </c>
       <c r="AL8">
-        <v>0.019300001859664961</v>
+        <v>1.9300001859664961E-2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>0.70000000000000007</v>
       </c>
@@ -1162,7 +1504,8 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.0543670654296875</v>
+        <f t="shared" si="0"/>
+        <v>2.0061047528713436</v>
       </c>
       <c r="G9">
         <v>-0.15656355023384094</v>
@@ -1201,13 +1544,13 @@
         <v>-1.054344654083252</v>
       </c>
       <c r="S9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>-1.1435319185256958</v>
       </c>
       <c r="U9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-1.0711669921875</v>
@@ -1237,7 +1580,7 @@
         <v>0.75351780652999878</v>
       </c>
       <c r="AE9">
-        <v>0.0016583097167313099</v>
+        <v>1.6583097167313099E-3</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1255,15 +1598,15 @@
         <v>0.12000018358230591</v>
       </c>
       <c r="AK9">
-        <v>0.0016583097167313099</v>
+        <v>1.6583097167313099E-3</v>
       </c>
       <c r="AL9">
-        <v>0.018099999427795388</v>
+        <v>1.8099999427795388E-2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38">
       <c r="A10">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="B10">
         <v>-1.057805061340332</v>
@@ -1278,7 +1621,8 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.0587053298950195</v>
+        <f t="shared" si="0"/>
+        <v>2.0058314979273244</v>
       </c>
       <c r="G10">
         <v>-0.15500572323799133</v>
@@ -1317,13 +1661,13 @@
         <v>-1.0517036914825439</v>
       </c>
       <c r="S10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>-1.1447296142578125</v>
       </c>
       <c r="U10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>-1.0711669921875</v>
@@ -1353,7 +1697,7 @@
         <v>0.75719088315963745</v>
       </c>
       <c r="AE10">
-        <v>0.0018741742242127657</v>
+        <v>1.8741742242127657E-3</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1371,15 +1715,15 @@
         <v>-2.0499999523162842</v>
       </c>
       <c r="AK10">
-        <v>0.0018741742242127657</v>
+        <v>1.8741742242127657E-3</v>
       </c>
       <c r="AL10">
-        <v>0.038599997758865356</v>
+        <v>3.8599997758865356E-2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38">
       <c r="A11">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="B11">
         <v>-1.0561567544937134</v>
@@ -1394,7 +1738,8 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.0603876113891602</v>
+        <f t="shared" si="0"/>
+        <v>2.0055609619043304</v>
       </c>
       <c r="G11">
         <v>-0.15352413058280945</v>
@@ -1433,7 +1778,7 @@
         <v>-1.0517059564590454</v>
       </c>
       <c r="S11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>-1.1448487043380737</v>
@@ -1445,7 +1790,7 @@
         <v>-1.07666015625</v>
       </c>
       <c r="W11">
-        <v>-0.006103515625</v>
+        <v>-6.103515625E-3</v>
       </c>
       <c r="X11">
         <v>-1.0561567544937134</v>
@@ -1469,7 +1814,7 @@
         <v>0.74915897846221924</v>
       </c>
       <c r="AE11">
-        <v>-0.0018686000257730484</v>
+        <v>-1.8686000257730484E-3</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1484,16 +1829,16 @@
         <v>0.96110000014305119</v>
       </c>
       <c r="AJ11">
-        <v>-0.030000224709510803</v>
+        <v>-3.0000224709510803E-2</v>
       </c>
       <c r="AK11">
-        <v>-0.0018686000257730484</v>
+        <v>-1.8686000257730484E-3</v>
       </c>
       <c r="AL11">
-        <v>0.038899999856948808</v>
+        <v>3.8899999856948808E-2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1510,7 +1855,8 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.0616154670715332</v>
+        <f t="shared" si="0"/>
+        <v>2.0052930117483374</v>
       </c>
       <c r="G12">
         <v>-0.15223947167396545</v>
@@ -1549,7 +1895,7 @@
         <v>-1.0517059564590454</v>
       </c>
       <c r="S12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>-1.1448487043380737</v>
@@ -1561,7 +1907,7 @@
         <v>-1.07666015625</v>
       </c>
       <c r="W12">
-        <v>-0.0244140625</v>
+        <v>-2.44140625E-2</v>
       </c>
       <c r="X12">
         <v>-1.0549542903900146</v>
@@ -1585,7 +1931,7 @@
         <v>0.7414093017578125</v>
       </c>
       <c r="AE12">
-        <v>-0.0019199141534045339</v>
+        <v>-1.9199141534045339E-3</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1600,16 +1946,16 @@
         <v>0.94521000146865841</v>
       </c>
       <c r="AJ12">
-        <v>0.039999984204769135</v>
+        <v>3.9999984204769135E-2</v>
       </c>
       <c r="AK12">
-        <v>-0.0019199141534045339</v>
+        <v>-1.9199141534045339E-3</v>
       </c>
       <c r="AL12">
-        <v>0.0366899991035462</v>
+        <v>3.66899991035462E-2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -1626,7 +1972,8 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.062511682510376</v>
+        <f t="shared" si="0"/>
+        <v>2.0050273037451167</v>
       </c>
       <c r="G13">
         <v>-0.15072466433048248</v>
@@ -1665,13 +2012,13 @@
         <v>-1.0517059564590454</v>
       </c>
       <c r="S13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>-1.1448487043380737</v>
       </c>
       <c r="U13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>-1.07666015625</v>
@@ -1701,7 +2048,7 @@
         <v>0.73431867361068726</v>
       </c>
       <c r="AE13">
-        <v>-0.0018434490775689483</v>
+        <v>-1.8434490775689483E-3</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1719,13 +2066,13 @@
         <v>1.3399999141693115</v>
       </c>
       <c r="AK13">
-        <v>-0.0018434490775689483</v>
+        <v>-1.8434490775689483E-3</v>
       </c>
       <c r="AL13">
-        <v>0.021279998421668944</v>
+        <v>2.1279998421668944E-2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>1.2000000000000002</v>
       </c>
@@ -1742,7 +2089,8 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.0616815090179443</v>
+        <f t="shared" si="0"/>
+        <v>2.0047642395794636</v>
       </c>
       <c r="G14">
         <v>-0.14922493696212769</v>
@@ -1781,13 +2129,13 @@
         <v>-1.0543491840362549</v>
       </c>
       <c r="S14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>-1.1437702178955078</v>
       </c>
       <c r="U14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>-1.07666015625</v>
@@ -1817,7 +2165,7 @@
         <v>0.73514217138290405</v>
       </c>
       <c r="AE14">
-        <v>0.00060417508939281106</v>
+        <v>6.0417508939281106E-4</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1835,13 +2183,13 @@
         <v>-0.15000012516975403</v>
       </c>
       <c r="AK14">
-        <v>0.00060417508939281106</v>
+        <v>6.0417508939281106E-4</v>
       </c>
       <c r="AL14">
-        <v>0.024839997291564941</v>
+        <v>2.4839997291564941E-2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -1858,7 +2206,8 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.0632009506225586</v>
+        <f t="shared" si="0"/>
+        <v>2.0045037929318568</v>
       </c>
       <c r="G15">
         <v>-0.14566278457641602</v>
@@ -1897,19 +2246,19 @@
         <v>-1.0596288442611694</v>
       </c>
       <c r="S15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>-1.1412557363510132</v>
       </c>
       <c r="U15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>-1.0711669921875</v>
       </c>
       <c r="W15">
-        <v>0.030517578125</v>
+        <v>3.0517578125E-2</v>
       </c>
       <c r="X15">
         <v>-1.0553640127182007</v>
@@ -1933,7 +2282,7 @@
         <v>0.73518592119216919</v>
       </c>
       <c r="AE15">
-        <v>0.00038358222809620202</v>
+        <v>3.8358222809620202E-4</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1948,16 +2297,16 @@
         <v>0.95712999761104578</v>
       </c>
       <c r="AJ15">
-        <v>-0.0099998852238059044</v>
+        <v>-9.9998852238059044E-3</v>
       </c>
       <c r="AK15">
-        <v>0.00038358222809620202</v>
+        <v>3.8358222809620202E-4</v>
       </c>
       <c r="AL15">
-        <v>0.024569999575615009</v>
+        <v>2.4569999575615009E-2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>1.4000000000000001</v>
       </c>
@@ -1974,7 +2323,8 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.065152645111084</v>
+        <f t="shared" si="0"/>
+        <v>2.0042495634130084</v>
       </c>
       <c r="G16">
         <v>-0.1439097672700882</v>
@@ -2013,19 +2363,19 @@
         <v>-1.062267541885376</v>
       </c>
       <c r="S16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>-1.1399389505386353</v>
       </c>
       <c r="U16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>-1.0711669921875</v>
       </c>
       <c r="W16">
-        <v>0.030517578125</v>
+        <v>3.0517578125E-2</v>
       </c>
       <c r="X16">
         <v>-1.056516170501709</v>
@@ -2049,7 +2399,7 @@
         <v>0.73523157835006714</v>
       </c>
       <c r="AE16">
-        <v>0.0003646420082077384</v>
+        <v>3.646420082077384E-4</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2064,16 +2414,16 @@
         <v>0.95737999498844162</v>
       </c>
       <c r="AJ16">
-        <v>0.06999998539686203</v>
+        <v>6.999998539686203E-2</v>
       </c>
       <c r="AK16">
-        <v>0.0003646420082077384</v>
+        <v>3.646420082077384E-4</v>
       </c>
       <c r="AL16">
-        <v>0.023820002675056351</v>
+        <v>2.3820002675056351E-2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -2090,7 +2440,8 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.0680611133575439</v>
+        <f t="shared" si="0"/>
+        <v>2.0039983934865444</v>
       </c>
       <c r="G17">
         <v>-0.14211346209049225</v>
@@ -2129,19 +2480,19 @@
         <v>-1.0596243143081665</v>
       </c>
       <c r="S17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>-1.1410174369812012</v>
       </c>
       <c r="U17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>-1.065673828125</v>
       </c>
       <c r="W17">
-        <v>0.03662109375</v>
+        <v>3.662109375E-2</v>
       </c>
       <c r="X17">
         <v>-1.0580699443817139</v>
@@ -2165,7 +2516,7 @@
         <v>0.73566734790802002</v>
       </c>
       <c r="AE17">
-        <v>0.00049166218377649784</v>
+        <v>4.9166218377649784E-4</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2180,18 +2531,18 @@
         <v>0.93941000044345857</v>
       </c>
       <c r="AJ17">
-        <v>-0.059999708086252213</v>
+        <v>-5.9999708086252213E-2</v>
       </c>
       <c r="AK17">
-        <v>0.00049166218377649784</v>
+        <v>4.9166218377649784E-4</v>
       </c>
       <c r="AL17">
-        <v>0.022490001320838893</v>
+        <v>2.2490001320838893E-2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38">
       <c r="A18">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="B18">
         <v>-1.0584899187088013</v>
@@ -2206,7 +2557,8 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.0701839923858643</v>
+        <f t="shared" si="0"/>
+        <v>2.0037503587040555</v>
       </c>
       <c r="G18">
         <v>-0.14069941639900208</v>
@@ -2245,13 +2597,13 @@
         <v>-1.0596243143081665</v>
       </c>
       <c r="S18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>-1.1410174369812012</v>
       </c>
       <c r="U18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>-1.065673828125</v>
@@ -2281,7 +2633,7 @@
         <v>0.73574209213256836</v>
       </c>
       <c r="AE18">
-        <v>0.00038132129702717066</v>
+        <v>3.8132129702717066E-4</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2296,16 +2648,16 @@
         <v>0.9561299997568129</v>
       </c>
       <c r="AJ18">
-        <v>-0.019999885931611061</v>
+        <v>-1.9999885931611061E-2</v>
       </c>
       <c r="AK18">
-        <v>0.00038132129702717066</v>
+        <v>3.8132129702717066E-4</v>
       </c>
       <c r="AL18">
-        <v>0.02456999838352214</v>
+        <v>2.456999838352214E-2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>1.7000000000000002</v>
       </c>
@@ -2322,7 +2674,8 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.0732173919677734</v>
+        <f t="shared" si="0"/>
+        <v>2.0035047918968756</v>
       </c>
       <c r="G19">
         <v>-0.13911725580692291</v>
@@ -2361,19 +2714,19 @@
         <v>-1.0596243143081665</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>-1.1410174369812012</v>
       </c>
       <c r="U19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>-1.0601806640625</v>
       </c>
       <c r="W19">
-        <v>0.018310546875</v>
+        <v>1.8310546875E-2</v>
       </c>
       <c r="X19">
         <v>-1.0587964057922363</v>
@@ -2397,7 +2750,7 @@
         <v>0.73570048809051514</v>
       </c>
       <c r="AE19">
-        <v>0.00034414444235153496</v>
+        <v>3.4414444235153496E-4</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2412,16 +2765,16 @@
         <v>0.95660999774932853</v>
       </c>
       <c r="AJ19">
-        <v>-0.060000143945217133</v>
+        <v>-6.0000143945217133E-2</v>
       </c>
       <c r="AK19">
-        <v>0.00034414444235153496</v>
+        <v>3.4414444235153496E-4</v>
       </c>
       <c r="AL19">
-        <v>0.025290002822876079</v>
+        <v>2.5290002822876079E-2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -2438,7 +2791,8 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.0754311084747314</v>
+        <f t="shared" si="0"/>
+        <v>2.0032619864808585</v>
       </c>
       <c r="G20">
         <v>-0.13730789721012115</v>
@@ -2477,19 +2831,19 @@
         <v>-1.0596221685409546</v>
       </c>
       <c r="S20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>-1.1408983469009399</v>
       </c>
       <c r="U20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>-1.0601806640625</v>
       </c>
       <c r="W20">
-        <v>0.042724609375</v>
+        <v>4.2724609375E-2</v>
       </c>
       <c r="X20">
         <v>-1.0590194463729858</v>
@@ -2513,7 +2867,7 @@
         <v>0.73532462120056152</v>
       </c>
       <c r="AE20">
-        <v>0.00023407186381518841</v>
+        <v>2.3407186381518841E-4</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2531,13 +2885,13 @@
         <v>2.8000001907348633</v>
       </c>
       <c r="AK20">
-        <v>0.00023407186381518841</v>
+        <v>2.3407186381518841E-4</v>
       </c>
       <c r="AL20">
-        <v>-0.0047599941492080244</v>
+        <v>-4.7599941492080244E-3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>1.9000000000000001</v>
       </c>
@@ -2554,7 +2908,8 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.07853102684021</v>
+        <f t="shared" si="0"/>
+        <v>2.003022338991328</v>
       </c>
       <c r="G21">
         <v>-0.13575947284698486</v>
@@ -2593,19 +2948,19 @@
         <v>-1.0569812059402466</v>
       </c>
       <c r="S21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>-1.1420959234237671</v>
       </c>
       <c r="U21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>-1.0546875</v>
       </c>
       <c r="W21">
-        <v>0.018310546875</v>
+        <v>1.8310546875E-2</v>
       </c>
       <c r="X21">
         <v>-1.0584688186645508</v>
@@ -2629,7 +2984,7 @@
         <v>0.7506757378578186</v>
       </c>
       <c r="AE21">
-        <v>0.0053410581313073635</v>
+        <v>5.3410581313073635E-3</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2647,13 +3002,13 @@
         <v>2.8000001907348633</v>
       </c>
       <c r="AK21">
-        <v>0.0053410581313073635</v>
+        <v>5.3410581313073635E-3</v>
       </c>
       <c r="AL21">
-        <v>-0.0047899943590165028</v>
+        <v>-4.7899943590165028E-3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2670,7 +3025,8 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.0807933807373047</v>
+        <f t="shared" si="0"/>
+        <v>2.002785394012133</v>
       </c>
       <c r="G22">
         <v>-0.13422645628452301</v>
@@ -2709,19 +3065,19 @@
         <v>-1.0569789409637451</v>
       </c>
       <c r="S22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>-1.1419768333435059</v>
       </c>
       <c r="U22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>-1.0546875</v>
       </c>
       <c r="W22">
-        <v>0.018310546875</v>
+        <v>1.8310546875E-2</v>
       </c>
       <c r="X22">
         <v>-1.0580663681030273</v>
@@ -2745,7 +3101,7 @@
         <v>0.74990862607955933</v>
       </c>
       <c r="AE22">
-        <v>0.00036982964957132936</v>
+        <v>3.6982964957132936E-4</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2763,15 +3119,15 @@
         <v>-2.7199995517730713</v>
       </c>
       <c r="AK22">
-        <v>0.00036982964957132936</v>
+        <v>3.6982964957132936E-4</v>
       </c>
       <c r="AL22">
-        <v>0.020821001291274954</v>
+        <v>2.0821001291274954E-2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38">
       <c r="A23">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="B23">
         <v>-1.0570590496063232</v>
@@ -2786,7 +3142,8 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.0839283466339111</v>
+        <f t="shared" si="0"/>
+        <v>2.0025511246515881</v>
       </c>
       <c r="G23">
         <v>-0.1325872391462326</v>
@@ -2825,19 +3182,19 @@
         <v>-1.0543379783630371</v>
       </c>
       <c r="S23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>-1.1431745290756226</v>
       </c>
       <c r="U23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>-1.0491943359375</v>
       </c>
       <c r="W23">
-        <v>0.030517578125</v>
+        <v>3.0517578125E-2</v>
       </c>
       <c r="X23">
         <v>-1.0570590496063232</v>
@@ -2861,7 +3218,7 @@
         <v>0.73706859350204468</v>
       </c>
       <c r="AE23">
-        <v>-0.0035708488430827856</v>
+        <v>-3.5708488430827856E-3</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2879,13 +3236,13 @@
         <v>-2.1599998474121094</v>
       </c>
       <c r="AK23">
-        <v>-0.0035708488430827856</v>
+        <v>-3.5708488430827856E-3</v>
       </c>
       <c r="AL23">
-        <v>0.041951997101306815</v>
+        <v>4.1951997101306815E-2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -2902,7 +3259,8 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.0839283466339111</v>
+        <f t="shared" si="0"/>
+        <v>2.0023197162646649</v>
       </c>
       <c r="G24">
         <v>-0.1325872391462326</v>
@@ -2941,19 +3299,19 @@
         <v>-1.0543358325958252</v>
       </c>
       <c r="S24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>-1.1430553197860718</v>
       </c>
       <c r="U24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>-1.043701171875</v>
       </c>
       <c r="W24">
-        <v>0.0732421875</v>
+        <v>7.32421875E-2</v>
       </c>
       <c r="X24">
         <v>-1.0570590496063232</v>
@@ -2977,7 +3335,7 @@
         <v>0.73706859350204468</v>
       </c>
       <c r="AE24">
-        <v>-0.0035708488430827856</v>
+        <v>-3.5708488430827856E-3</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2995,13 +3353,13 @@
         <v>2.0899996757507324</v>
       </c>
       <c r="AK24">
-        <v>-0.0035708488430827856</v>
+        <v>-3.5708488430827856E-3</v>
       </c>
       <c r="AL24">
-        <v>0.022755998373031661</v>
+        <v>2.2755998373031661E-2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>2.3000000000000003</v>
       </c>
@@ -3018,7 +3376,8 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.0877006053924561</v>
+        <f t="shared" si="0"/>
+        <v>2.0020883078777416</v>
       </c>
       <c r="G25">
         <v>-0.13053920865058899</v>
@@ -3057,19 +3416,19 @@
         <v>-1.0543336868286133</v>
       </c>
       <c r="S25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>-1.1429362297058105</v>
       </c>
       <c r="U25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>-1.03271484375</v>
       </c>
       <c r="W25">
-        <v>0.08544921875</v>
+        <v>8.544921875E-2</v>
       </c>
       <c r="X25">
         <v>-1.0563234090805054</v>
@@ -3093,7 +3452,7 @@
         <v>0.73667210340499878</v>
       </c>
       <c r="AE25">
-        <v>0.00024798291269689798</v>
+        <v>2.4798291269689798E-4</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3108,16 +3467,16 @@
         <v>0.93441699975728976</v>
       </c>
       <c r="AJ25">
-        <v>-1.9073486612342094e-07</v>
+        <v>-1.9073486612342094E-7</v>
       </c>
       <c r="AK25">
-        <v>0.00024798291269689798</v>
+        <v>2.4798291269689798E-4</v>
       </c>
       <c r="AL25">
-        <v>0.022712997853756023</v>
+        <v>2.2712997853756023E-2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>2.4000000000000004</v>
       </c>
@@ -3134,7 +3493,8 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.0934216976165771</v>
+        <f t="shared" si="0"/>
+        <v>2.0018604739783514</v>
       </c>
       <c r="G26">
         <v>-0.1283901035785675</v>
@@ -3173,19 +3533,19 @@
         <v>-1.0569703578948975</v>
       </c>
       <c r="S26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>-1.1415002346038818</v>
       </c>
       <c r="U26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>-1.03271484375</v>
       </c>
       <c r="W26">
-        <v>0.08544921875</v>
+        <v>8.544921875E-2</v>
       </c>
       <c r="X26">
         <v>-1.0557858943939209</v>
@@ -3209,7 +3569,7 @@
         <v>0.7362978458404541</v>
       </c>
       <c r="AE26">
-        <v>0.00024753023171797395</v>
+        <v>2.4753023171797395E-4</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3224,16 +3584,16 @@
         <v>0.93484199482202546</v>
       </c>
       <c r="AJ26">
-        <v>0.019999809563159943</v>
+        <v>1.9999809563159943E-2</v>
       </c>
       <c r="AK26">
-        <v>0.00024753023171797395</v>
+        <v>2.4753023171797395E-4</v>
       </c>
       <c r="AL26">
-        <v>0.022538000166416161</v>
+        <v>2.2538000166416161E-2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -3250,7 +3610,8 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.1020493507385254</v>
+        <f t="shared" si="0"/>
+        <v>2.0016363909749093</v>
       </c>
       <c r="G27">
         <v>-0.12529067695140839</v>
@@ -3289,13 +3650,13 @@
         <v>-1.0569639205932617</v>
       </c>
       <c r="S27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>-1.141142725944519</v>
       </c>
       <c r="U27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>-1.0162353515625</v>
@@ -3325,7 +3686,7 @@
         <v>0.73605674505233765</v>
       </c>
       <c r="AE27">
-        <v>0.00028355990070849657</v>
+        <v>2.8355990070849657E-4</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3340,18 +3701,18 @@
         <v>0.9186689997315407</v>
       </c>
       <c r="AJ27">
-        <v>6.6757202432654594e-08</v>
+        <v>6.6757202432654594E-8</v>
       </c>
       <c r="AK27">
-        <v>0.00028355990070849657</v>
+        <v>2.8355990070849657E-4</v>
       </c>
       <c r="AL27">
-        <v>0.020741000711917867</v>
+        <v>2.0741000711917867E-2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38">
       <c r="A28">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="B28">
         <v>-1.0563377141952515</v>
@@ -3366,7 +3727,8 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.1127982139587402</v>
+        <f t="shared" si="0"/>
+        <v>2.0014177174914241</v>
       </c>
       <c r="G28">
         <v>-0.12197917699813843</v>
@@ -3405,13 +3767,13 @@
         <v>-1.051398754119873</v>
       </c>
       <c r="S28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>-1.1355488300323486</v>
       </c>
       <c r="U28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>-0.999755859375</v>
@@ -3441,7 +3803,7 @@
         <v>0.73582923412322998</v>
       </c>
       <c r="AE28">
-        <v>0.00028304278384894133</v>
+        <v>2.8304278384894133E-4</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3456,18 +3818,18 @@
         <v>0.93351700168848029</v>
       </c>
       <c r="AJ28">
-        <v>-0.019999932497739792</v>
+        <v>-1.9999932497739792E-2</v>
       </c>
       <c r="AK28">
-        <v>0.00028304278384894133</v>
+        <v>2.8304278384894133E-4</v>
       </c>
       <c r="AL28">
-        <v>0.022612998068332613</v>
+        <v>2.2612998068332613E-2</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38">
       <c r="A29">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="B29">
         <v>-1.0550034046173096</v>
@@ -3482,7 +3844,8 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.1265792846679688</v>
+        <f t="shared" si="0"/>
+        <v>2.0012048236656752</v>
       </c>
       <c r="G29">
         <v>-0.11851842701435089</v>
@@ -3521,13 +3884,13 @@
         <v>-1.0540314912796021</v>
       </c>
       <c r="S29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>-1.1338745355606079</v>
       </c>
       <c r="U29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>-0.977783203125</v>
@@ -3557,7 +3920,7 @@
         <v>0.73550224304199219</v>
       </c>
       <c r="AE29">
-        <v>0.00024604509235359728</v>
+        <v>2.4604509235359728E-4</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3575,13 +3938,13 @@
         <v>-2.1100001335144043</v>
       </c>
       <c r="AK29">
-        <v>0.00024604509235359728</v>
+        <v>2.4604509235359728E-4</v>
       </c>
       <c r="AL29">
-        <v>0.043761000394821115</v>
+        <v>4.3761000394821115E-2</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>2.8000000000000003</v>
       </c>
@@ -3598,7 +3961,8 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.1440572738647461</v>
+        <f t="shared" si="0"/>
+        <v>2.0009979699881066</v>
       </c>
       <c r="G30">
         <v>-0.11527431011199951</v>
@@ -3631,19 +3995,19 @@
         <v>4</v>
       </c>
       <c r="Q30">
-        <v>-23.795730590820313</v>
+        <v>-23.795730590820312</v>
       </c>
       <c r="R30">
         <v>-1.0513805150985718</v>
       </c>
       <c r="S30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>-1.1344764232635498</v>
       </c>
       <c r="U30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>-0.9503173828125</v>
@@ -3673,7 +4037,7 @@
         <v>0.72335809469223022</v>
       </c>
       <c r="AE30">
-        <v>-0.0036032041534781456</v>
+        <v>-3.6032041534781456E-3</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3691,13 +4055,13 @@
         <v>2.130000114440918</v>
       </c>
       <c r="AK30">
-        <v>-0.0036032041534781456</v>
+        <v>-3.6032041534781456E-3</v>
       </c>
       <c r="AL30">
-        <v>0.023416000306606399</v>
+        <v>2.3416000306606399E-2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>2.9000000000000004</v>
       </c>
@@ -3714,7 +4078,8 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.1627495288848877</v>
+        <f t="shared" si="0"/>
+        <v>2.0007967783626648</v>
       </c>
       <c r="G31">
         <v>-0.11194100975990295</v>
@@ -3753,13 +4118,13 @@
         <v>-1.054013729095459</v>
       </c>
       <c r="S31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>-1.1328021287918091</v>
       </c>
       <c r="U31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>-0.9283447265625</v>
@@ -3789,7 +4154,7 @@
         <v>0.72384285926818848</v>
       </c>
       <c r="AE31">
-        <v>0.00028865027707070112</v>
+        <v>2.8865027707070112E-4</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3807,13 +4172,13 @@
         <v>-1.2199999094009399</v>
       </c>
       <c r="AK31">
-        <v>0.00028865027707070112</v>
+        <v>2.8865027707070112E-4</v>
       </c>
       <c r="AL31">
-        <v>0.035588998019695284</v>
+        <v>3.5588998019695284E-2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3830,7 +4195,8 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.1823279857635498</v>
+        <f t="shared" si="0"/>
+        <v>2.0006014044438332</v>
       </c>
       <c r="G32">
         <v>-0.10882306843996048</v>
@@ -3869,13 +4235,13 @@
         <v>-1.0542830228805542</v>
       </c>
       <c r="S32">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>-1.1399573087692261</v>
       </c>
       <c r="U32">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>-0.9063720703125</v>
@@ -3905,7 +4271,7 @@
         <v>0.717457115650177</v>
       </c>
       <c r="AE32">
-        <v>-0.0019372487440705299</v>
+        <v>-1.9372487440705299E-3</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3920,18 +4286,18 @@
         <v>0.89315009901523601</v>
       </c>
       <c r="AJ32">
-        <v>0.019999856129288673</v>
+        <v>1.9999856129288673E-2</v>
       </c>
       <c r="AK32">
-        <v>-0.0019372487440705299</v>
+        <v>-1.9372487440705299E-3</v>
       </c>
       <c r="AL32">
-        <v>0.031238901162147448</v>
+        <v>3.1238901162147448E-2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38">
       <c r="A33">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="B33">
         <v>-1.0539902448654175</v>
@@ -3946,7 +4312,8 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2.2010693550109863</v>
+        <f t="shared" si="0"/>
+        <v>2.0004114723591933</v>
       </c>
       <c r="G33">
         <v>-0.10579688102006912</v>
@@ -3985,13 +4352,13 @@
         <v>-1.0542774200439453</v>
       </c>
       <c r="S33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>-1.1395998001098633</v>
       </c>
       <c r="U33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>-0.889892578125</v>
@@ -4021,7 +4388,7 @@
         <v>0.71154177188873291</v>
       </c>
       <c r="AE33">
-        <v>-0.0018972337711602449</v>
+        <v>-1.8972337711602449E-3</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4039,15 +4406,15 @@
         <v>1.9500001668930054</v>
       </c>
       <c r="AK33">
-        <v>-0.0018972337711602449</v>
+        <v>-1.8972337711602449E-3</v>
       </c>
       <c r="AL33">
-        <v>0.0091568020164967123</v>
+        <v>9.1568020164967123E-3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38">
       <c r="A34">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="B34">
         <v>-1.054067850112915</v>
@@ -4062,7 +4429,8 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.2206835746765137</v>
+        <f t="shared" si="0"/>
+        <v>2.0002268219679791</v>
       </c>
       <c r="G34">
         <v>-0.10280080884695053</v>
@@ -4101,13 +4469,13 @@
         <v>-1.0542700290679932</v>
       </c>
       <c r="S34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>-1.1391232013702393</v>
       </c>
       <c r="U34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>-0.867919921875</v>
@@ -4137,7 +4505,7 @@
         <v>0.71689623594284058</v>
       </c>
       <c r="AE34">
-        <v>0.0016631752951070666</v>
+        <v>1.6631752951070666E-3</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4152,16 +4520,16 @@
         <v>0.92252360165119163</v>
       </c>
       <c r="AJ34">
-        <v>0.050000187009572983</v>
+        <v>5.0000187009572983E-2</v>
       </c>
       <c r="AK34">
-        <v>0.0016631752951070666</v>
+        <v>1.6631752951070666E-3</v>
       </c>
       <c r="AL34">
-        <v>0.012280402779579203</v>
+        <v>1.2280402779579203E-2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>3.3000000000000003</v>
       </c>
@@ -4178,10 +4546,11 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2.2409350872039795</v>
+        <f t="shared" si="0"/>
+        <v>2.0000474007091698</v>
       </c>
       <c r="G35">
-        <v>-0.099834538996219635</v>
+        <v>-9.9834538996219635E-2</v>
       </c>
       <c r="H35">
         <v>-60</v>
@@ -4217,13 +4586,13 @@
         <v>-1.0542628765106201</v>
       </c>
       <c r="S35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>-1.1386466026306152</v>
       </c>
       <c r="U35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>-0.845947265625</v>
@@ -4247,13 +4616,13 @@
         <v>2.2409350872039795</v>
       </c>
       <c r="AC35">
-        <v>-0.099834538996219635</v>
+        <v>-9.9834538996219635E-2</v>
       </c>
       <c r="AD35">
         <v>0.72223085165023804</v>
       </c>
       <c r="AE35">
-        <v>0.0017513456987217069</v>
+        <v>1.7513456987217069E-3</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4268,16 +4637,16 @@
         <v>0.92207529873251892</v>
       </c>
       <c r="AJ35">
-        <v>-0.0099997660145163536</v>
+        <v>-9.9997660145163536E-3</v>
       </c>
       <c r="AK35">
-        <v>0.0017513456987217069</v>
+        <v>1.7513456987217069E-3</v>
       </c>
       <c r="AL35">
-        <v>0.012341701024770835</v>
+        <v>1.2341701024770835E-2</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>3.4000000000000004</v>
       </c>
@@ -4294,10 +4663,11 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.2616512775421143</v>
+        <f t="shared" si="0"/>
+        <v>1.9998731565679002</v>
       </c>
       <c r="G36">
-        <v>-0.096715599298477173</v>
+        <v>-9.6715599298477173E-2</v>
       </c>
       <c r="H36">
         <v>-60</v>
@@ -4333,13 +4703,13 @@
         <v>-1.0516149997711182</v>
       </c>
       <c r="S36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>-1.1393675804138184</v>
       </c>
       <c r="U36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>-0.823974609375</v>
@@ -4363,13 +4733,13 @@
         <v>2.2616512775421143</v>
       </c>
       <c r="AC36">
-        <v>-0.096715599298477173</v>
+        <v>-9.6715599298477173E-2</v>
       </c>
       <c r="AD36">
         <v>0.72721016407012939</v>
       </c>
       <c r="AE36">
-        <v>0.0017299108440056443</v>
+        <v>1.7299108440056443E-3</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4384,16 +4754,16 @@
         <v>0.92305779252648379</v>
       </c>
       <c r="AJ36">
-        <v>0.060000106692314148</v>
+        <v>6.0000106692314148E-2</v>
       </c>
       <c r="AK36">
-        <v>0.0017299108440056443</v>
+        <v>1.7299108440056443E-3</v>
       </c>
       <c r="AL36">
-        <v>0.011784202295541668</v>
+        <v>1.1784202295541668E-2</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -4410,10 +4780,11 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.2827072143554688</v>
+        <f t="shared" si="0"/>
+        <v>1.9997043560033205</v>
       </c>
       <c r="G37">
-        <v>-0.093566961586475372</v>
+        <v>-9.3566961586475372E-2</v>
       </c>
       <c r="H37">
         <v>-60</v>
@@ -4449,13 +4820,13 @@
         <v>-1.0516149997711182</v>
       </c>
       <c r="S37">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>-1.1393675804138184</v>
       </c>
       <c r="U37">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>-0.802001953125</v>
@@ -4479,13 +4850,13 @@
         <v>2.2827072143554688</v>
       </c>
       <c r="AC37">
-        <v>-0.093566961586475372</v>
+        <v>-9.3566961586475372E-2</v>
       </c>
       <c r="AD37">
         <v>0.73224663734436035</v>
       </c>
       <c r="AE37">
-        <v>0.0018362000118941069</v>
+        <v>1.8362000118941069E-3</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4503,15 +4874,15 @@
         <v>-0.78999972343444824</v>
       </c>
       <c r="AK37">
-        <v>0.0018362000118941069</v>
+        <v>1.8362000118941069E-3</v>
       </c>
       <c r="AL37">
-        <v>0.018066902405023622</v>
+        <v>1.8066902405023622E-2</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38">
       <c r="A38">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="B38">
         <v>-1.0522556304931641</v>
@@ -4526,10 +4897,11 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.3040106296539307</v>
+        <f t="shared" si="0"/>
+        <v>1.9995410508482434</v>
       </c>
       <c r="G38">
-        <v>-0.090449653565883636</v>
+        <v>-9.0449653565883636E-2</v>
       </c>
       <c r="H38">
         <v>-60</v>
@@ -4565,13 +4937,13 @@
         <v>-1.0489606857299805</v>
       </c>
       <c r="S38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>-1.139612078666687</v>
       </c>
       <c r="U38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>-0.780029296875</v>
@@ -4595,13 +4967,13 @@
         <v>2.3040106296539307</v>
       </c>
       <c r="AC38">
-        <v>-0.090449653565883636</v>
+        <v>-9.0449653565883636E-2</v>
       </c>
       <c r="AD38">
         <v>0.73256939649581909</v>
       </c>
       <c r="AE38">
-        <v>0.00039183118497021496</v>
+        <v>3.9183118497021496E-4</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4619,15 +4991,15 @@
         <v>-2.0199997425079346</v>
       </c>
       <c r="AK38">
-        <v>0.00039183118497021496</v>
+        <v>3.9183118497021496E-4</v>
       </c>
       <c r="AL38">
-        <v>0.039751698833703997</v>
+        <v>3.9751698833703997E-2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38">
       <c r="A39">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="B39">
         <v>-1.0513654947280884</v>
@@ -4642,10 +5014,11 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.3254950046539307</v>
+        <f t="shared" si="0"/>
+        <v>1.9993831864220422</v>
       </c>
       <c r="G39">
-        <v>-0.087181165814399719</v>
+        <v>-8.7181165814399719E-2</v>
       </c>
       <c r="H39">
         <v>-60</v>
@@ -4681,13 +5054,13 @@
         <v>-1.0489543676376343</v>
       </c>
       <c r="S39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>-1.1391353607177734</v>
       </c>
       <c r="U39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>-0.758056640625</v>
@@ -4711,13 +5084,13 @@
         <v>2.3254950046539307</v>
       </c>
       <c r="AC39">
-        <v>-0.087181165814399719</v>
+        <v>-8.7181165814399719E-2</v>
       </c>
       <c r="AD39">
         <v>0.72154331207275391</v>
       </c>
       <c r="AE39">
-        <v>-0.0032935165800154209</v>
+        <v>-3.2935165800154209E-3</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4735,13 +5108,13 @@
         <v>1.9699999094009399</v>
       </c>
       <c r="AK39">
-        <v>-0.0032935165800154209</v>
+        <v>-3.2935165800154209E-3</v>
       </c>
       <c r="AL39">
-        <v>0.017984901690483057</v>
+        <v>1.7984901690483057E-2</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>3.8000000000000003</v>
       </c>
@@ -4758,10 +5131,11 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.348595142364502</v>
+        <f t="shared" si="0"/>
+        <v>1.9992310265831232</v>
       </c>
       <c r="G40">
-        <v>-0.083763010799884796</v>
+        <v>-8.3763010799884796E-2</v>
       </c>
       <c r="H40">
         <v>-60</v>
@@ -4797,13 +5171,13 @@
         <v>-1.0463056564331055</v>
       </c>
       <c r="S40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>-1.1397372484207153</v>
       </c>
       <c r="U40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>-0.7305908203125</v>
@@ -4827,13 +5201,13 @@
         <v>2.348595142364502</v>
       </c>
       <c r="AC40">
-        <v>-0.083763010799884796</v>
+        <v>-8.3763010799884796E-2</v>
       </c>
       <c r="AD40">
         <v>0.72218596935272217</v>
       </c>
       <c r="AE40">
-        <v>0.00030592057737521827</v>
+        <v>3.0592057737521827E-4</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4851,13 +5225,13 @@
         <v>-1.9599997997283936</v>
       </c>
       <c r="AK40">
-        <v>0.00030592057737521827</v>
+        <v>3.0592057737521827E-4</v>
       </c>
       <c r="AL40">
-        <v>0.040574399560689867</v>
+        <v>4.0574399560689867E-2</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>3.9000000000000004</v>
       </c>
@@ -4874,10 +5248,11 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2.3713908195495605</v>
+        <f t="shared" si="0"/>
+        <v>1.9990848325501391</v>
       </c>
       <c r="G41">
-        <v>-0.080500327050685883</v>
+        <v>-8.0500327050685883E-2</v>
       </c>
       <c r="H41">
         <v>-60</v>
@@ -4913,13 +5288,13 @@
         <v>-1.0489406585693359</v>
       </c>
       <c r="S41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>-1.1380629539489746</v>
       </c>
       <c r="U41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>-0.7086181640625</v>
@@ -4943,13 +5318,13 @@
         <v>2.3713908195495605</v>
       </c>
       <c r="AC41">
-        <v>-0.080500327050685883</v>
+        <v>-8.0500327050685883E-2</v>
       </c>
       <c r="AD41">
         <v>0.71179842948913574</v>
       </c>
       <c r="AE41">
-        <v>-0.003269825829192996</v>
+        <v>-3.269825829192996E-3</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4967,13 +5342,13 @@
         <v>-1.2000000476837158</v>
       </c>
       <c r="AK41">
-        <v>-0.003269825829192996</v>
+        <v>-3.269825829192996E-3</v>
       </c>
       <c r="AL41">
-        <v>0.051330100077390695</v>
+        <v>5.1330100077390695E-2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4990,10 +5365,11 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2.3939640522003174</v>
+        <f t="shared" si="0"/>
+        <v>1.9989443329745424</v>
       </c>
       <c r="G42">
-        <v>-0.077513031661510468</v>
+        <v>-7.7513031661510468E-2</v>
       </c>
       <c r="H42">
         <v>-60</v>
@@ -5029,13 +5405,13 @@
         <v>-1.0489348173141479</v>
       </c>
       <c r="S42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>-1.137586236000061</v>
       </c>
       <c r="U42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>-0.6866455078125</v>
@@ -5059,13 +5435,13 @@
         <v>2.3939640522003174</v>
       </c>
       <c r="AC42">
-        <v>-0.077513031661510468</v>
+        <v>-7.7513031661510468E-2</v>
       </c>
       <c r="AD42">
         <v>0.69526249170303345</v>
       </c>
       <c r="AE42">
-        <v>-0.0054527525790035725</v>
+        <v>-5.4527525790035725E-3</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5083,13 +5459,13 @@
         <v>4.0100002288818359</v>
       </c>
       <c r="AK42">
-        <v>-0.0054527525790035725</v>
+        <v>-5.4527525790035725E-3</v>
       </c>
       <c r="AL42">
-        <v>0.0075150080418586729</v>
+        <v>7.5150080418586729E-3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>4.1000000000000005</v>
       </c>
@@ -5106,10 +5482,11 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2.4163751602172852</v>
+        <f t="shared" si="0"/>
+        <v>1.9988090472129729</v>
       </c>
       <c r="G43">
-        <v>-0.074676923453807831</v>
+        <v>-7.4676923453807831E-2</v>
       </c>
       <c r="H43">
         <v>-60</v>
@@ -5145,13 +5522,13 @@
         <v>-1.0489292144775391</v>
       </c>
       <c r="S43">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>-1.137109637260437</v>
       </c>
       <c r="U43">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>-0.6646728515625</v>
@@ -5175,13 +5552,13 @@
         <v>2.4163751602172852</v>
       </c>
       <c r="AC43">
-        <v>-0.074676923453807831</v>
+        <v>-7.4676923453807831E-2</v>
       </c>
       <c r="AD43">
         <v>0.70214712619781494</v>
       </c>
       <c r="AE43">
-        <v>0.0018717384664341807</v>
+        <v>1.8717384664341807E-3</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5199,15 +5576,15 @@
         <v>-1.970000147819519</v>
       </c>
       <c r="AK43">
-        <v>0.0018717384664341807</v>
+        <v>1.8717384664341807E-3</v>
       </c>
       <c r="AL43">
-        <v>0.02684112076580536</v>
+        <v>2.684112076580536E-2</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38">
       <c r="A44">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="B44">
         <v>-1.0491628646850586</v>
@@ -5222,10 +5599,11 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.4386675357818604</v>
+        <f t="shared" si="0"/>
+        <v>1.9986787113940201</v>
       </c>
       <c r="G44">
-        <v>-0.07162611186504364</v>
+        <v>-7.162611186504364E-2</v>
       </c>
       <c r="H44">
         <v>-60</v>
@@ -5261,13 +5639,13 @@
         <v>-1.0410008430480957</v>
       </c>
       <c r="S44">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>-1.1402260065078735</v>
       </c>
       <c r="U44">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>-0.6427001953125</v>
@@ -5291,13 +5669,13 @@
         <v>2.4386675357818604</v>
       </c>
       <c r="AC44">
-        <v>-0.07162611186504364</v>
+        <v>-7.162611186504364E-2</v>
       </c>
       <c r="AD44">
         <v>0.69759535789489746</v>
       </c>
       <c r="AE44">
-        <v>-0.0017251055687665939</v>
+        <v>-1.7251055687665939E-3</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5312,18 +5690,18 @@
         <v>0.89207123857736581</v>
       </c>
       <c r="AJ44">
-        <v>-0.029999919235706329</v>
+        <v>-2.9999919235706329E-2</v>
       </c>
       <c r="AK44">
-        <v>-0.0017251055687665939</v>
+        <v>-1.7251055687665939E-3</v>
       </c>
       <c r="AL44">
-        <v>0.030452363073825817</v>
+        <v>3.0452363073825817E-2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:38">
       <c r="A45">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="B45">
         <v>-1.0469578504562378</v>
@@ -5338,10 +5716,11 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>2.4608738422393799</v>
+        <f t="shared" si="0"/>
+        <v>1.9985537002457754</v>
       </c>
       <c r="G45">
-        <v>-0.068848580121994019</v>
+        <v>-6.8848580121994019E-2</v>
       </c>
       <c r="H45">
         <v>-60</v>
@@ -5377,13 +5756,13 @@
         <v>-1.0383546352386475</v>
       </c>
       <c r="S45">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>-1.1409469842910767</v>
       </c>
       <c r="U45">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>-0.6207275390625</v>
@@ -5407,13 +5786,13 @@
         <v>2.4608738422393799</v>
       </c>
       <c r="AC45">
-        <v>-0.068848580121994019</v>
+        <v>-6.8848580121994019E-2</v>
       </c>
       <c r="AD45">
         <v>0.69313067197799683</v>
       </c>
       <c r="AE45">
-        <v>-0.0017766810487955809</v>
+        <v>-1.7766810487955809E-3</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5428,16 +5807,16 @@
         <v>0.89216777143418768</v>
       </c>
       <c r="AJ45">
-        <v>0.05000029131770134</v>
+        <v>5.000029131770134E-2</v>
       </c>
       <c r="AK45">
-        <v>-0.0017766810487955809</v>
+        <v>-1.7766810487955809E-3</v>
       </c>
       <c r="AL45">
-        <v>0.029907527298331238</v>
+        <v>2.9907527298331238E-2</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -5454,10 +5833,11 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.4815328121185303</v>
+        <f t="shared" si="0"/>
+        <v>1.9984335368049302</v>
       </c>
       <c r="G46">
-        <v>-0.066280871629714966</v>
+        <v>-6.6280871629714966E-2</v>
       </c>
       <c r="H46">
         <v>-60</v>
@@ -5493,13 +5873,13 @@
         <v>-1.0357098579406738</v>
       </c>
       <c r="S46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>-1.1417871713638306</v>
       </c>
       <c r="U46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>-0.604248046875</v>
@@ -5523,13 +5903,13 @@
         <v>2.4815328121185303</v>
       </c>
       <c r="AC46">
-        <v>-0.066280871629714966</v>
+        <v>-6.6280871629714966E-2</v>
       </c>
       <c r="AD46">
         <v>0.6891968846321106</v>
       </c>
       <c r="AE46">
-        <v>-0.0016822358593344688</v>
+        <v>-1.6822358593344688E-3</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5547,13 +5927,13 @@
         <v>1.9999997615814209</v>
       </c>
       <c r="AK46">
-        <v>-0.0016822358593344688</v>
+        <v>-1.6822358593344688E-3</v>
       </c>
       <c r="AL46">
-        <v>0.010005777869820598</v>
+        <v>1.0005777869820598E-2</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -5570,10 +5950,11 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.5025467872619629</v>
+        <f t="shared" si="0"/>
+        <v>1.9983178548608271</v>
       </c>
       <c r="G47">
-        <v>-0.063556522130966187</v>
+        <v>-6.3556522130966187E-2</v>
       </c>
       <c r="H47">
         <v>-60</v>
@@ -5609,13 +5990,13 @@
         <v>-1.0383459329605103</v>
       </c>
       <c r="S47">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>-1.1401128768920898</v>
       </c>
       <c r="U47">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>-0.582275390625</v>
@@ -5639,13 +6020,13 @@
         <v>2.5025467872619629</v>
       </c>
       <c r="AC47">
-        <v>-0.063556522130966187</v>
+        <v>-6.3556522130966187E-2</v>
       </c>
       <c r="AD47">
         <v>0.69670224189758301</v>
       </c>
       <c r="AE47">
-        <v>0.0019689840264618397</v>
+        <v>1.9689840264618397E-3</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5660,16 +6041,16 @@
         <v>0.89314188511431214</v>
       </c>
       <c r="AJ47">
-        <v>0.029999861493706703</v>
+        <v>2.9999861493706703E-2</v>
       </c>
       <c r="AK47">
-        <v>0.0019689840264618397</v>
+        <v>1.9689840264618397E-3</v>
       </c>
       <c r="AL47">
-        <v>0.0074602122122049419</v>
+        <v>7.4602122122049419E-3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>4.6000000000000005</v>
       </c>
@@ -5686,10 +6067,11 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.5223357677459717</v>
+        <f t="shared" si="0"/>
+        <v>1.998206927803597</v>
       </c>
       <c r="G48">
-        <v>-0.061102207750082016</v>
+        <v>-6.1102207750082016E-2</v>
       </c>
       <c r="H48">
         <v>-60</v>
@@ -5725,13 +6107,13 @@
         <v>-1.0383423566818237</v>
       </c>
       <c r="S48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T48">
         <v>-1.1397553682327271</v>
       </c>
       <c r="U48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>-0.5657958984375</v>
@@ -5755,13 +6137,13 @@
         <v>2.5223357677459717</v>
       </c>
       <c r="AC48">
-        <v>-0.061102207750082016</v>
+        <v>-6.1102207750082016E-2</v>
       </c>
       <c r="AD48">
         <v>0.70395487546920776</v>
       </c>
       <c r="AE48">
-        <v>0.0020201145671308041</v>
+        <v>2.0201145671308041E-3</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5779,15 +6161,15 @@
         <v>-2.0399997234344482</v>
       </c>
       <c r="AK48">
-        <v>0.0020201145671308041</v>
+        <v>2.0201145671308041E-3</v>
       </c>
       <c r="AL48">
-        <v>0.027176532383561103</v>
+        <v>2.7176532383561103E-2</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:38">
       <c r="A49">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="B49">
         <v>-1.040410041809082</v>
@@ -5802,10 +6184,11 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.5427145957946777</v>
+        <f t="shared" si="0"/>
+        <v>1.9981002843330493</v>
       </c>
       <c r="G49">
-        <v>-0.058550849556922913</v>
+        <v>-5.8550849556922913E-2</v>
       </c>
       <c r="H49">
         <v>-60</v>
@@ -5835,19 +6218,19 @@
         <v>4</v>
       </c>
       <c r="Q49">
-        <v>-25.778518676757813</v>
+        <v>-25.778518676757812</v>
       </c>
       <c r="R49">
-        <v>-1.0383377075195313</v>
+        <v>-1.0383377075195312</v>
       </c>
       <c r="S49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <v>-1.1392786502838135</v>
       </c>
       <c r="U49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <v>-0.5438232421875</v>
@@ -5871,13 +6254,13 @@
         <v>2.5427145957946777</v>
       </c>
       <c r="AC49">
-        <v>-0.058550849556922913</v>
+        <v>-5.8550849556922913E-2</v>
       </c>
       <c r="AD49">
         <v>0.69935780763626099</v>
       </c>
       <c r="AE49">
-        <v>-0.001704684691503644</v>
+        <v>-1.704684691503644E-3</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5895,13 +6278,13 @@
         <v>2.0200002193450928</v>
       </c>
       <c r="AK49">
-        <v>-0.001704684691503644</v>
+        <v>-1.704684691503644E-3</v>
       </c>
       <c r="AL49">
-        <v>0.0070864094710350045</v>
+        <v>7.0864094710350045E-3</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>4.8000000000000007</v>
       </c>
@@ -5918,10 +6301,11 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.5620400905609131</v>
+        <f t="shared" si="0"/>
+        <v>1.9979980938225885</v>
       </c>
       <c r="G50">
-        <v>-0.056389261037111282</v>
+        <v>-5.6389261037111282E-2</v>
       </c>
       <c r="H50">
         <v>-60</v>
@@ -5957,13 +6341,13 @@
         <v>-1.0354164838790894</v>
       </c>
       <c r="S50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>-1.1324870586395264</v>
       </c>
       <c r="U50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>-0.52734375</v>
@@ -5987,13 +6371,13 @@
         <v>2.5620400905609131</v>
       </c>
       <c r="AC50">
-        <v>-0.056389261037111282</v>
+        <v>-5.6389261037111282E-2</v>
       </c>
       <c r="AD50">
         <v>0.70634931325912476</v>
       </c>
       <c r="AE50">
-        <v>0.0019830586388707161</v>
+        <v>1.9830586388707161E-3</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6011,13 +6395,13 @@
         <v>-2.1099998950958252</v>
       </c>
       <c r="AK50">
-        <v>0.0019830586388707161</v>
+        <v>1.9830586388707161E-3</v>
       </c>
       <c r="AL50">
-        <v>0.028916962084174158</v>
+        <v>2.8916962084174158E-2</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -6034,10 +6418,11 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2.5805966854095459</v>
+        <f t="shared" si="0"/>
+        <v>1.9978996759958021</v>
       </c>
       <c r="G51">
-        <v>-0.053945526480674744</v>
+        <v>-5.3945526480674744E-2</v>
       </c>
       <c r="H51">
         <v>-60</v>
@@ -6073,13 +6458,13 @@
         <v>-1.0327723026275635</v>
       </c>
       <c r="S51">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>-1.1333272457122803</v>
       </c>
       <c r="U51">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>-0.5108642578125</v>
@@ -6103,13 +6488,13 @@
         <v>2.5805966854095459</v>
       </c>
       <c r="AC51">
-        <v>-0.053945526480674744</v>
+        <v>-5.3945526480674744E-2</v>
       </c>
       <c r="AD51">
         <v>0.70111310482025146</v>
       </c>
       <c r="AE51">
-        <v>-0.0018693587044253945</v>
+        <v>-1.8693587044253945E-3</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6127,13 +6512,13 @@
         <v>2.0800001621246338</v>
       </c>
       <c r="AK51">
-        <v>-0.0018693587044253945</v>
+        <v>-1.8693587044253945E-3</v>
       </c>
       <c r="AL51">
-        <v>0.0057970916432141806</v>
+        <v>5.7970916432141806E-3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>5</v>
       </c>
@@ -6150,10 +6535,11 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.6000761985778809</v>
+        <f t="shared" si="0"/>
+        <v>1.997805523290421</v>
       </c>
       <c r="G52">
-        <v>-0.051526110619306564</v>
+        <v>-5.1526110619306564E-2</v>
       </c>
       <c r="H52">
         <v>-60</v>
@@ -6189,13 +6575,13 @@
         <v>-1.0327681303024292</v>
       </c>
       <c r="S52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>-1.1328505277633667</v>
       </c>
       <c r="U52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>-0.4888916015625</v>
@@ -6219,13 +6605,13 @@
         <v>2.6000761985778809</v>
       </c>
       <c r="AC52">
-        <v>-0.051526110619306564</v>
+        <v>-5.1526110619306564E-2</v>
       </c>
       <c r="AD52">
         <v>0.70783782005310059</v>
       </c>
       <c r="AE52">
-        <v>0.001928129349835217</v>
+        <v>1.928129349835217E-3</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6240,16 +6626,16 @@
         <v>0.87957158068394681</v>
       </c>
       <c r="AJ52">
-        <v>0.040000200271606445</v>
+        <v>4.0000200271606445E-2</v>
       </c>
       <c r="AK52">
-        <v>0.001928129349835217</v>
+        <v>1.928129349835217E-3</v>
       </c>
       <c r="AL52">
-        <v>0.0060635102894305293</v>
+        <v>6.0635102894305293E-3</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>5.1000000000000005</v>
       </c>
@@ -6266,10 +6652,11 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2.6202290058135986</v>
+        <f t="shared" si="0"/>
+        <v>1.9977155932623156</v>
       </c>
       <c r="G53">
-        <v>-0.049191497266292572</v>
+        <v>-4.9191497266292572E-2</v>
       </c>
       <c r="H53">
         <v>-60</v>
@@ -6305,13 +6692,13 @@
         <v>-1.030123233795166</v>
       </c>
       <c r="S53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>-1.1335716247558594</v>
       </c>
       <c r="U53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>-0.4669189453125</v>
@@ -6335,13 +6722,13 @@
         <v>2.6202290058135986</v>
       </c>
       <c r="AC53">
-        <v>-0.049191497266292572</v>
+        <v>-4.9191497266292572E-2</v>
       </c>
       <c r="AD53">
         <v>0.71440976858139038</v>
       </c>
       <c r="AE53">
-        <v>0.0019975756295025349</v>
+        <v>1.9975756295025349E-3</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6359,15 +6746,15 @@
         <v>-2.0399999618530273</v>
       </c>
       <c r="AK53">
-        <v>0.0019975756295025349</v>
+        <v>1.9975756295025349E-3</v>
       </c>
       <c r="AL53">
-        <v>0.024157008689224657</v>
+        <v>2.4157008689224657E-2</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:38">
       <c r="A54">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="B54">
         <v>-1.0343418121337891</v>
@@ -6382,10 +6769,11 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>2.6393897533416748</v>
+        <f t="shared" si="0"/>
+        <v>1.9976297379031873</v>
       </c>
       <c r="G54">
-        <v>-0.047062303870916367</v>
+        <v>-4.7062303870916367E-2</v>
       </c>
       <c r="H54">
         <v>-60</v>
@@ -6421,13 +6809,13 @@
         <v>-1.0248384475708008</v>
       </c>
       <c r="S54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <v>-1.1356093883514404</v>
       </c>
       <c r="U54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>-0.450439453125</v>
@@ -6451,13 +6839,13 @@
         <v>2.6393897533416748</v>
       </c>
       <c r="AC54">
-        <v>-0.047062303870916367</v>
+        <v>-4.7062303870916367E-2</v>
       </c>
       <c r="AD54">
         <v>0.70917016267776489</v>
       </c>
       <c r="AE54">
-        <v>-0.0017271828837692738</v>
+        <v>-1.7271828837692738E-3</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6472,16 +6860,16 @@
         <v>0.86436411567330362</v>
       </c>
       <c r="AJ54">
-        <v>-0.059999920427799225</v>
+        <v>-5.9999920427799225E-2</v>
       </c>
       <c r="AK54">
-        <v>-0.0017271828837692738</v>
+        <v>-1.7271828837692738E-3</v>
       </c>
       <c r="AL54">
-        <v>0.027707122904062187</v>
+        <v>2.7707122904062187E-2</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>5.3000000000000007</v>
       </c>
@@ -6498,10 +6886,11 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.6578259468078613</v>
+        <f t="shared" si="0"/>
+        <v>1.9975475986875753</v>
       </c>
       <c r="G55">
-        <v>-0.044954299926757813</v>
+        <v>-4.4954299926757812E-2</v>
       </c>
       <c r="H55">
         <v>-60</v>
@@ -6537,13 +6926,13 @@
         <v>-1.0221947431564331</v>
       </c>
       <c r="S55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>-1.1364495754241943</v>
       </c>
       <c r="U55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>-0.4339599609375</v>
@@ -6567,13 +6956,13 @@
         <v>2.6578259468078613</v>
       </c>
       <c r="AC55">
-        <v>-0.044954299926757813</v>
+        <v>-4.4954299926757812E-2</v>
       </c>
       <c r="AD55">
         <v>0.703887939453125</v>
       </c>
       <c r="AE55">
-        <v>-0.0018334768246859312</v>
+        <v>-1.8334768246859312E-3</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -6591,15 +6980,15 @@
         <v>1.3199999332427979</v>
       </c>
       <c r="AK55">
-        <v>-0.0018334768246859312</v>
+        <v>-1.8334768246859312E-3</v>
       </c>
       <c r="AL55">
-        <v>0.014516779241502298</v>
+        <v>1.4516779241502298E-2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:38">
       <c r="A56">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="B56">
         <v>-1.0291863679885864</v>
@@ -6614,10 +7003,11 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2.6757335662841797</v>
+        <f t="shared" si="0"/>
+        <v>1.9974691386329102</v>
       </c>
       <c r="G56">
-        <v>-0.043049462139606476</v>
+        <v>-4.3049462139606476E-2</v>
       </c>
       <c r="H56">
         <v>-60</v>
@@ -6653,13 +7043,13 @@
         <v>-1.024833083152771</v>
       </c>
       <c r="S56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>-1.1348943710327148</v>
       </c>
       <c r="U56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>-0.41748046875</v>
@@ -6683,13 +7073,13 @@
         <v>2.6757335662841797</v>
       </c>
       <c r="AC56">
-        <v>-0.043049462139606476</v>
+        <v>-4.3049462139606476E-2</v>
       </c>
       <c r="AD56">
         <v>0.70630621910095215</v>
       </c>
       <c r="AE56">
-        <v>0.00057764776283875108</v>
+        <v>5.7764776283875108E-4</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -6707,13 +7097,13 @@
         <v>-2.0199997425079346</v>
       </c>
       <c r="AK56">
-        <v>0.00057764776283875108</v>
+        <v>5.7764776283875108E-4</v>
       </c>
       <c r="AL56">
-        <v>0.036805199796736243</v>
+        <v>3.6805199796736243E-2</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -6730,10 +7120,11 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.6932554244995117</v>
+        <f t="shared" si="0"/>
+        <v>1.9973940031473554</v>
       </c>
       <c r="G57">
-        <v>-0.041042111814022064</v>
+        <v>-4.1042111814022064E-2</v>
       </c>
       <c r="H57">
         <v>-60</v>
@@ -6769,13 +7160,13 @@
         <v>-1.0248304605484009</v>
       </c>
       <c r="S57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>-1.1345368623733521</v>
       </c>
       <c r="U57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>-0.4010009765625</v>
@@ -6799,13 +7190,13 @@
         <v>2.6932554244995117</v>
       </c>
       <c r="AC57">
-        <v>-0.041042111814022064</v>
+        <v>-4.1042111814022064E-2</v>
       </c>
       <c r="AD57">
         <v>0.69725817441940308</v>
       </c>
       <c r="AE57">
-        <v>-0.0031080387998372316</v>
+        <v>-3.1080387998372316E-3</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6820,16 +7211,16 @@
         <v>0.85852769569689025</v>
       </c>
       <c r="AJ57">
-        <v>0.019999833777546883</v>
+        <v>1.9999833777546883E-2</v>
       </c>
       <c r="AK57">
-        <v>-0.0031080387998372316</v>
+        <v>-3.1080387998372316E-3</v>
       </c>
       <c r="AL57">
-        <v>0.034614189417421892</v>
+        <v>3.4614189417421892E-2</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>5.6000000000000005</v>
       </c>
@@ -6846,10 +7237,11 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2.7104957103729248</v>
+        <f t="shared" si="0"/>
+        <v>1.9973223711490427</v>
       </c>
       <c r="G58">
-        <v>-0.039479855448007584</v>
+        <v>-3.9479855448007584E-2</v>
       </c>
       <c r="H58">
         <v>-60</v>
@@ -6885,13 +7277,13 @@
         <v>-1.0303869247436523</v>
       </c>
       <c r="S58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T58">
         <v>-1.1394158601760864</v>
       </c>
       <c r="U58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>-0.384521484375</v>
@@ -6915,13 +7307,13 @@
         <v>2.7104957103729248</v>
       </c>
       <c r="AC58">
-        <v>-0.039479855448007584</v>
+        <v>-3.9479855448007584E-2</v>
       </c>
       <c r="AD58">
         <v>0.68882977962493896</v>
       </c>
       <c r="AE58">
-        <v>-0.0030658883042633533</v>
+        <v>-3.0658883042633533E-3</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6936,18 +7328,18 @@
         <v>0.83462989251810316</v>
       </c>
       <c r="AJ58">
-        <v>0.019999833777546883</v>
+        <v>1.9999833777546883E-2</v>
       </c>
       <c r="AK58">
-        <v>-0.0030658883042633533</v>
+        <v>-3.0658883042633533E-3</v>
       </c>
       <c r="AL58">
-        <v>0.03195887795311203</v>
+        <v>3.195887795311203E-2</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:38">
       <c r="A59">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="B59">
         <v>-1.0280253887176514</v>
@@ -6962,10 +7354,11 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.7260463237762451</v>
+        <f t="shared" si="0"/>
+        <v>1.9972534658024648</v>
       </c>
       <c r="G59">
-        <v>-0.037993870675563812</v>
+        <v>-3.7993870675563812E-2</v>
       </c>
       <c r="H59">
         <v>-60</v>
@@ -7001,13 +7394,13 @@
         <v>-1.0277442932128906</v>
       </c>
       <c r="S59">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>-1.1403751373291016</v>
       </c>
       <c r="U59">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <v>-0.37353515625</v>
@@ -7031,13 +7424,13 @@
         <v>2.7260463237762451</v>
       </c>
       <c r="AC59">
-        <v>-0.037993870675563812</v>
+        <v>-3.7993870675563812E-2</v>
       </c>
       <c r="AD59">
         <v>0.69663619995117188</v>
       </c>
       <c r="AE59">
-        <v>0.0020653577521443367</v>
+        <v>2.0653577521443367E-3</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -7055,13 +7448,13 @@
         <v>-3.9799997806549072</v>
       </c>
       <c r="AK59">
-        <v>0.0020653577521443367</v>
+        <v>2.0653577521443367E-3</v>
       </c>
       <c r="AL59">
-        <v>0.04607777000212665</v>
+        <v>4.607777000212665E-2</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>5.8000000000000007</v>
       </c>
@@ -7078,10 +7471,11 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2.8794262409210205</v>
+        <f t="shared" si="0"/>
+        <v>1.9971871539885782</v>
       </c>
       <c r="G60">
-        <v>-0.022124553099274635</v>
+        <v>-2.2124553099274635E-2</v>
       </c>
       <c r="H60">
         <v>-60</v>
@@ -7117,7 +7511,7 @@
         <v>-1.0050700902938843</v>
       </c>
       <c r="S60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>-1.179297924041748</v>
@@ -7129,7 +7523,7 @@
         <v>-0.263671875</v>
       </c>
       <c r="W60">
-        <v>-0.01220703125</v>
+        <v>-1.220703125E-2</v>
       </c>
       <c r="X60">
         <v>-1.0084964036941528</v>
@@ -7147,13 +7541,13 @@
         <v>2.8794262409210205</v>
       </c>
       <c r="AC60">
-        <v>-0.022124553099274635</v>
+        <v>-2.2124553099274635E-2</v>
       </c>
       <c r="AD60">
         <v>0.70433449745178223</v>
       </c>
       <c r="AE60">
-        <v>-0.0087831215932965279</v>
+        <v>-8.7831215932965279E-3</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -7171,15 +7565,15 @@
         <v>2.1399998664855957</v>
       </c>
       <c r="AK60">
-        <v>-0.0087831215932965279</v>
+        <v>-8.7831215932965279E-3</v>
       </c>
       <c r="AL60">
-        <v>0.023125261488854854</v>
+        <v>2.3125261488854854E-2</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:38">
       <c r="A61">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="B61">
         <v>-1.007570743560791</v>
@@ -7194,10 +7588,11 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2.8790194988250732</v>
+        <f t="shared" si="0"/>
+        <v>1.9971485393588666</v>
       </c>
       <c r="G61">
-        <v>-0.022025872021913528</v>
+        <v>-2.2025872021913528E-2</v>
       </c>
       <c r="H61">
         <v>-87.353166092696043</v>
@@ -7233,7 +7628,7 @@
         <v>-1.002429723739624</v>
       </c>
       <c r="S61">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T61">
         <v>-1.180614709854126</v>
@@ -7245,7 +7640,7 @@
         <v>-0.2691650390625</v>
       </c>
       <c r="W61">
-        <v>-0.03662109375</v>
+        <v>-3.662109375E-2</v>
       </c>
       <c r="X61">
         <v>-1.007570743560791</v>
@@ -7263,13 +7658,13 @@
         <v>2.8790194988250732</v>
       </c>
       <c r="AC61">
-        <v>-0.022025872021913528</v>
+        <v>-2.2025872021913528E-2</v>
       </c>
       <c r="AD61">
         <v>0.68883419036865234</v>
       </c>
       <c r="AE61">
-        <v>-0.008748859167098999</v>
+        <v>-8.748859167098999E-3</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -7287,13 +7682,13 @@
         <v>-1.1300002336502075</v>
       </c>
       <c r="AK61">
-        <v>-0.008748859167098999</v>
+        <v>-8.748859167098999E-3</v>
       </c>
       <c r="AL61">
-        <v>0.034417382049739209</v>
+        <v>3.4417382049739209E-2</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>6</v>
       </c>
@@ -7310,10 +7705,11 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.8709392547607422</v>
+        <f t="shared" si="0"/>
+        <v>1.9971100969601261</v>
       </c>
       <c r="G62">
-        <v>-0.023121032863855362</v>
+        <v>-2.3121032863855362E-2</v>
       </c>
       <c r="H62">
         <v>-96.994086537839848</v>
@@ -7349,7 +7745,7 @@
         <v>-0.99742591381072998</v>
       </c>
       <c r="S62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T62">
         <v>-1.1908801794052124</v>
@@ -7361,7 +7757,7 @@
         <v>-0.28564453125</v>
       </c>
       <c r="W62">
-        <v>-0.079345703125</v>
+        <v>-7.9345703125E-2</v>
       </c>
       <c r="X62">
         <v>-1.0025559663772583</v>
@@ -7379,13 +7775,13 @@
         <v>2.8709392547607422</v>
       </c>
       <c r="AC62">
-        <v>-0.023121032863855362</v>
+        <v>-2.3121032863855362E-2</v>
       </c>
       <c r="AD62">
         <v>0.66934603452682495</v>
       </c>
       <c r="AE62">
-        <v>-0.0067780190147459507</v>
+        <v>-6.7780190147459507E-3</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7400,16 +7796,16 @@
         <v>0.84491442185261256</v>
       </c>
       <c r="AJ62">
-        <v>-0.0099997948855161667</v>
+        <v>-9.9997948855161667E-3</v>
       </c>
       <c r="AK62">
-        <v>-0.0067780190147459507</v>
+        <v>-6.7780190147459507E-3</v>
       </c>
       <c r="AL62">
-        <v>0.034657158831334245</v>
+        <v>3.4657158831334245E-2</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>6.1000000000000005</v>
       </c>
@@ -7426,10 +7822,11 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.8668892383575439</v>
+        <f t="shared" si="0"/>
+        <v>1.9970697431451325</v>
       </c>
       <c r="G63">
-        <v>-0.023680474609136581</v>
+        <v>-2.3680474609136581E-2</v>
       </c>
       <c r="H63">
         <v>-102.63190002815611</v>
@@ -7465,7 +7862,7 @@
         <v>-0.98950421810150146</v>
       </c>
       <c r="S63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>-1.1947115659713745</v>
@@ -7477,7 +7874,7 @@
         <v>-0.2911376953125</v>
       </c>
       <c r="W63">
-        <v>-0.054931640625</v>
+        <v>-5.4931640625E-2</v>
       </c>
       <c r="X63">
         <v>-1.0004568099975586</v>
@@ -7495,13 +7892,13 @@
         <v>2.8668892383575439</v>
       </c>
       <c r="AC63">
-        <v>-0.023680474609136581</v>
+        <v>-2.3680474609136581E-2</v>
       </c>
       <c r="AD63">
         <v>0.66169804334640503</v>
       </c>
       <c r="AE63">
-        <v>-0.0067838956601917744</v>
+        <v>-6.7838956601917744E-3</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7519,15 +7916,15 @@
         <v>-2.0999999046325684</v>
       </c>
       <c r="AK63">
-        <v>-0.0067838956601917744</v>
+        <v>-6.7838956601917744E-3</v>
       </c>
       <c r="AL63">
-        <v>0.029341305340749191</v>
+        <v>2.9341305340749191E-2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:38">
       <c r="A64">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="B64">
         <v>-0.9946250319480896</v>
@@ -7542,10 +7939,11 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2.8577251434326172</v>
+        <f t="shared" si="0"/>
+        <v>1.9970284129200961</v>
       </c>
       <c r="G64">
-        <v>-0.024420749396085739</v>
+        <v>-2.4420749396085739E-2</v>
       </c>
       <c r="H64">
         <v>-101.61409373951022</v>
@@ -7581,7 +7979,7 @@
         <v>-0.98978239297866821</v>
       </c>
       <c r="S64">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>-1.2025816440582275</v>
@@ -7593,7 +7991,7 @@
         <v>-0.3021240234375</v>
       </c>
       <c r="W64">
-        <v>-0.054931640625</v>
+        <v>-5.4931640625E-2</v>
       </c>
       <c r="X64">
         <v>-0.9946250319480896</v>
@@ -7611,13 +8009,13 @@
         <v>2.8577251434326172</v>
       </c>
       <c r="AC64">
-        <v>-0.024420749396085739</v>
+        <v>-2.4420749396085739E-2</v>
       </c>
       <c r="AD64">
         <v>0.66009211540222168</v>
       </c>
       <c r="AE64">
-        <v>-0.0065476666204631329</v>
+        <v>-6.5476666204631329E-3</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -7635,13 +8033,13 @@
         <v>2.0399997234344482</v>
       </c>
       <c r="AK64">
-        <v>-0.0065476666204631329</v>
+        <v>-6.5476666204631329E-3</v>
       </c>
       <c r="AL64">
-        <v>0.011536410279870069</v>
+        <v>1.1536410279870069E-2</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>6.3000000000000007</v>
       </c>
@@ -7658,10 +8056,11 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2.8477091789245605</v>
+        <f t="shared" si="0"/>
+        <v>1.9969857906718196</v>
       </c>
       <c r="G65">
-        <v>-0.02472124807536602</v>
+        <v>-2.472124807536602E-2</v>
       </c>
       <c r="H65">
         <v>-101.50857237746676</v>
@@ -7697,7 +8096,7 @@
         <v>-0.98741894960403442</v>
       </c>
       <c r="S65">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T65">
         <v>-1.211530327796936</v>
@@ -7709,7 +8108,7 @@
         <v>-0.3131103515625</v>
       </c>
       <c r="W65">
-        <v>-0.006103515625</v>
+        <v>-6.103515625E-3</v>
       </c>
       <c r="X65">
         <v>-0.99172341823577881</v>
@@ -7727,13 +8126,13 @@
         <v>2.8477091789245605</v>
       </c>
       <c r="AC65">
-        <v>-0.02472124807536602</v>
+        <v>-2.472124807536602E-2</v>
       </c>
       <c r="AD65">
         <v>0.65898549556732178</v>
       </c>
       <c r="AE65">
-        <v>-0.0028026874642819166</v>
+        <v>-2.8026874642819166E-3</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -7751,15 +8150,15 @@
         <v>-2.0799999237060547</v>
       </c>
       <c r="AK65">
-        <v>-0.0028026874642819166</v>
+        <v>-2.8026874642819166E-3</v>
       </c>
       <c r="AL65">
-        <v>0.032965101412719577</v>
+        <v>3.2965101412719577E-2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:38">
       <c r="A66">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="B66">
         <v>-0.98653024435043335</v>
@@ -7774,10 +8173,11 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>2.83872389793396</v>
+        <f t="shared" si="0"/>
+        <v>1.9969426439544078</v>
       </c>
       <c r="G66">
-        <v>-0.024838440120220184</v>
+        <v>-2.4838440120220184E-2</v>
       </c>
       <c r="H66">
         <v>-82.267704307520319</v>
@@ -7813,7 +8213,7 @@
         <v>-0.98213833570480347</v>
       </c>
       <c r="S66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <v>-1.2141640186309814</v>
@@ -7825,7 +8225,7 @@
         <v>-0.318603515625</v>
       </c>
       <c r="W66">
-        <v>-0.018310546875</v>
+        <v>-1.8310546875E-2</v>
       </c>
       <c r="X66">
         <v>-0.98653024435043335</v>
@@ -7843,13 +8243,13 @@
         <v>2.83872389793396</v>
       </c>
       <c r="AC66">
-        <v>-0.024838440120220184</v>
+        <v>-2.4838440120220184E-2</v>
       </c>
       <c r="AD66">
         <v>0.65789657831192017</v>
       </c>
       <c r="AE66">
-        <v>-0.0064590978436172009</v>
+        <v>-6.4590978436172009E-3</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7864,16 +8264,16 @@
         <v>0.84332213246794363</v>
       </c>
       <c r="AJ66">
-        <v>-0.070000201463699341</v>
+        <v>-7.0000201463699341E-2</v>
       </c>
       <c r="AK66">
-        <v>-0.0064590978436172009</v>
+        <v>-6.4590978436172009E-3</v>
       </c>
       <c r="AL66">
-        <v>0.032924682391983318</v>
+        <v>3.2924682391983318E-2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -7890,10 +8290,11 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.8313705921173096</v>
+        <f t="shared" si="0"/>
+        <v>1.996899292698292</v>
       </c>
       <c r="G67">
-        <v>-0.024526987224817276</v>
+        <v>-2.4526987224817276E-2</v>
       </c>
       <c r="H67">
         <v>-88.729102125242335</v>
@@ -7929,13 +8330,13 @@
         <v>-0.98241525888442993</v>
       </c>
       <c r="S67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T67">
         <v>-1.2217957973480225</v>
       </c>
       <c r="U67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V67">
         <v>-0.318603515625</v>
@@ -7959,13 +8360,13 @@
         <v>2.8313705921173096</v>
       </c>
       <c r="AC67">
-        <v>-0.024526987224817276</v>
+        <v>-2.4526987224817276E-2</v>
       </c>
       <c r="AD67">
         <v>0.64617520570755005</v>
       </c>
       <c r="AE67">
-        <v>-0.0064539960585534573</v>
+        <v>-6.4539960585534573E-3</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -7983,13 +8384,13 @@
         <v>4.3299999237060547</v>
       </c>
       <c r="AK67">
-        <v>-0.0064539960585534573</v>
+        <v>-6.4539960585534573E-3</v>
       </c>
       <c r="AL67">
-        <v>0.020652768568330981</v>
+        <v>2.0652768568330981E-2</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:38">
       <c r="A68">
         <v>6.6000000000000005</v>
       </c>
@@ -8006,10 +8407,11 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>2.8342599868774414</v>
+        <f t="shared" ref="F68:F121" si="1">F67+RADIANS(G67)*(A68-A67)</f>
+        <v>1.9968564850300252</v>
       </c>
       <c r="G68">
-        <v>-0.021814936771988869</v>
+        <v>-2.1814936771988869E-2</v>
       </c>
       <c r="H68">
         <v>-81.484654334968582</v>
@@ -8045,13 +8447,13 @@
         <v>-0.98004746437072754</v>
       </c>
       <c r="S68">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T68">
         <v>-1.229910135269165</v>
       </c>
       <c r="U68">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V68">
         <v>-0.28564453125</v>
@@ -8075,13 +8477,13 @@
         <v>2.8342599868774414</v>
       </c>
       <c r="AC68">
-        <v>-0.021814936771988869</v>
+        <v>-2.1814936771988869E-2</v>
       </c>
       <c r="AD68">
         <v>0.61902576684951782</v>
       </c>
       <c r="AE68">
-        <v>-0.0044838041067123413</v>
+        <v>-4.4838041067123413E-3</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -8099,15 +8501,15 @@
         <v>-2.0999996662139893</v>
       </c>
       <c r="AK68">
-        <v>-0.0044838041067123413</v>
+        <v>-4.4838041067123413E-3</v>
       </c>
       <c r="AL68">
-        <v>0.027862989824014806</v>
+        <v>2.7862989824014806E-2</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:38">
       <c r="A69">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="B69">
         <v>-0.9773210883140564</v>
@@ -8122,10 +8524,11 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2.883613109588623</v>
+        <f t="shared" si="1"/>
+        <v>1.9968184107827467</v>
       </c>
       <c r="G69">
-        <v>-0.013243733905255795</v>
+        <v>-1.3243733905255795E-2</v>
       </c>
       <c r="H69">
         <v>-60</v>
@@ -8161,13 +8564,13 @@
         <v>-0.97475922107696533</v>
       </c>
       <c r="S69">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T69">
         <v>-1.2308754920959473</v>
       </c>
       <c r="U69">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V69">
         <v>-0.2032470703125</v>
@@ -8191,13 +8594,13 @@
         <v>2.883613109588623</v>
       </c>
       <c r="AC69">
-        <v>-0.013243733905255795</v>
+        <v>-1.3243733905255795E-2</v>
       </c>
       <c r="AD69">
         <v>0.62018066644668579</v>
       </c>
       <c r="AE69">
-        <v>-0.0025359089486300945</v>
+        <v>-2.5359089486300945E-3</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -8215,13 +8618,13 @@
         <v>-2.2099997997283936</v>
       </c>
       <c r="AK69">
-        <v>-0.0025359089486300945</v>
+        <v>-2.5359089486300945E-3</v>
       </c>
       <c r="AL69">
-        <v>0.051069991595244391</v>
+        <v>5.1069991595244391E-2</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>6.8000000000000007</v>
       </c>
@@ -8238,10 +8641,11 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2.9317877292633057</v>
+        <f t="shared" si="1"/>
+        <v>1.9967952961065563</v>
       </c>
       <c r="G70">
-        <v>-0.00738123944029212</v>
+        <v>-7.38123944029212E-3</v>
       </c>
       <c r="H70">
         <v>-60</v>
@@ -8277,13 +8681,13 @@
         <v>-0.97238993644714355</v>
       </c>
       <c r="S70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>-1.2380365133285522</v>
       </c>
       <c r="U70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V70">
         <v>-0.142822265625</v>
@@ -8307,13 +8711,13 @@
         <v>2.9317877292633057</v>
       </c>
       <c r="AC70">
-        <v>-0.00738123944029212</v>
+        <v>-7.38123944029212E-3</v>
       </c>
       <c r="AD70">
         <v>0.60788732767105103</v>
       </c>
       <c r="AE70">
-        <v>-0.010268090292811394</v>
+        <v>-1.0268090292811394E-2</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -8331,15 +8735,15 @@
         <v>6.4600000381469727</v>
       </c>
       <c r="AK70">
-        <v>-0.010268090292811394</v>
+        <v>-1.0268090292811394E-2</v>
       </c>
       <c r="AL70">
-        <v>-0.012987264612347005</v>
+        <v>-1.2987264612347005E-2</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:38">
       <c r="A71">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="B71">
         <v>-0.97304600477218628</v>
@@ -8354,10 +8758,11 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>3.0019910335540771</v>
+        <f t="shared" si="1"/>
+        <v>1.9967824134134451</v>
       </c>
       <c r="G71">
-        <v>-0.00063552765641361475</v>
+        <v>-6.3552765641361475E-4</v>
       </c>
       <c r="H71">
         <v>-60</v>
@@ -8393,16 +8798,16 @@
         <v>-0.97238719463348389</v>
       </c>
       <c r="S71">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T71">
         <v>-1.2366064786911011</v>
       </c>
       <c r="U71">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>-0.076904296875</v>
+        <v>-7.6904296875E-2</v>
       </c>
       <c r="W71">
         <v>0.164794921875</v>
@@ -8423,13 +8828,13 @@
         <v>3.0019910335540771</v>
       </c>
       <c r="AC71">
-        <v>-0.00063552765641361475</v>
+        <v>-6.3552765641361475E-4</v>
       </c>
       <c r="AD71">
         <v>0.60973191261291504</v>
       </c>
       <c r="AE71">
-        <v>0.001629898208193481</v>
+        <v>1.629898208193481E-3</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -8447,13 +8852,13 @@
         <v>0.10999991744756699</v>
       </c>
       <c r="AK71">
-        <v>0.001629898208193481</v>
+        <v>1.629898208193481E-3</v>
       </c>
       <c r="AL71">
-        <v>-0.0051243562982857815</v>
+        <v>-5.1243562982857815E-3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>7</v>
       </c>
@@ -8470,10 +8875,11 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>3.08089280128479</v>
+        <f t="shared" si="1"/>
+        <v>1.9967813042084359</v>
       </c>
       <c r="G72">
-        <v>0.0064752805046737194</v>
+        <v>6.4752805046737194E-3</v>
       </c>
       <c r="H72">
         <v>-60</v>
@@ -8509,16 +8915,16 @@
         <v>-0.97794497013092041</v>
       </c>
       <c r="S72">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>-1.2406512498855591</v>
       </c>
       <c r="U72">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>-0.0054931640625</v>
+        <v>-5.4931640625E-3</v>
       </c>
       <c r="W72">
         <v>0.115966796875</v>
@@ -8539,13 +8945,13 @@
         <v>3.08089280128479</v>
       </c>
       <c r="AC72">
-        <v>0.0064752805046737194</v>
+        <v>6.4752805046737194E-3</v>
       </c>
       <c r="AD72">
         <v>0.60840129852294922</v>
       </c>
       <c r="AE72">
-        <v>-0.008134990930557251</v>
+        <v>-8.134990930557251E-3</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -8563,13 +8969,13 @@
         <v>-4.5300002098083496</v>
       </c>
       <c r="AK72">
-        <v>-0.008134990930557251</v>
+        <v>-8.134990930557251E-3</v>
       </c>
       <c r="AL72">
-        <v>0.039691440802433475</v>
+        <v>3.9691440802433475E-2</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>7.1000000000000005</v>
       </c>
@@ -8586,10 +8992,11 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.0095749776810407639</v>
+        <f t="shared" si="1"/>
+        <v>1.9967926057049157</v>
       </c>
       <c r="G73">
-        <v>0.011114368215203285</v>
+        <v>1.1114368215203285E-2</v>
       </c>
       <c r="H73">
         <v>-60</v>
@@ -8625,19 +9032,19 @@
         <v>-0.98058599233627319</v>
       </c>
       <c r="S73">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T73">
         <v>-1.2382618188858032</v>
       </c>
       <c r="U73">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>0.032958984375</v>
+        <v>3.2958984375E-2</v>
       </c>
       <c r="W73">
-        <v>0.067138671875</v>
+        <v>6.7138671875E-2</v>
       </c>
       <c r="X73">
         <v>-0.97797256708145142</v>
@@ -8652,16 +9059,16 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0.0095749776810407639</v>
+        <v>9.5749776810407639E-3</v>
       </c>
       <c r="AC73">
-        <v>0.011114368215203285</v>
+        <v>1.1114368215203285E-2</v>
       </c>
       <c r="AD73">
         <v>0.64088559150695801</v>
       </c>
       <c r="AE73">
-        <v>0.00010552253661444411</v>
+        <v>1.0552253661444411E-4</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -8679,15 +9086,15 @@
         <v>2.3199999332427979</v>
       </c>
       <c r="AK73">
-        <v>0.00010552253661444411</v>
+        <v>1.0552253661444411E-4</v>
       </c>
       <c r="AL73">
-        <v>0.012607173662264937</v>
+        <v>1.2607173662264937E-2</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:38">
       <c r="A74">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="B74">
         <v>-0.97997355461120605</v>
@@ -8702,10 +9109,11 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.047172967344522476</v>
+        <f t="shared" si="1"/>
+        <v>1.9968120039368791</v>
       </c>
       <c r="G74">
-        <v>0.013963346369564533</v>
+        <v>1.3963346369564533E-2</v>
       </c>
       <c r="H74">
         <v>-60</v>
@@ -8741,7 +9149,7 @@
         <v>-0.98350447416305542</v>
       </c>
       <c r="S74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T74">
         <v>-1.243980884552002</v>
@@ -8750,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>0.06591796875</v>
+        <v>6.591796875E-2</v>
       </c>
       <c r="W74">
-        <v>-0.006103515625</v>
+        <v>-6.103515625E-3</v>
       </c>
       <c r="X74">
         <v>-0.97997355461120605</v>
@@ -8768,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0.047172967344522476</v>
+        <v>4.7172967344522476E-2</v>
       </c>
       <c r="AC74">
-        <v>0.013963346369564533</v>
+        <v>1.3963346369564533E-2</v>
       </c>
       <c r="AD74">
         <v>0.65308129787445068</v>
       </c>
       <c r="AE74">
-        <v>0.0087448833510279655</v>
+        <v>8.7448833510279655E-3</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -8795,13 +9203,13 @@
         <v>2.2899999618530273</v>
       </c>
       <c r="AK74">
-        <v>0.0087448833510279655</v>
+        <v>8.7448833510279655E-3</v>
       </c>
       <c r="AL74">
-        <v>-0.0051172278870940113</v>
+        <v>-5.1172278870940113E-3</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>7.3000000000000007</v>
       </c>
@@ -8818,10 +9226,11 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.057985030114650726</v>
+        <f t="shared" si="1"/>
+        <v>1.9968363745737536</v>
       </c>
       <c r="G75">
-        <v>0.011295673437416553</v>
+        <v>1.1295673437416553E-2</v>
       </c>
       <c r="H75">
         <v>-77.109509522812587</v>
@@ -8851,13 +9260,13 @@
         <v>4</v>
       </c>
       <c r="Q75">
-        <v>22.892837524414063</v>
+        <v>22.892837524414062</v>
       </c>
       <c r="R75">
         <v>-0.98350423574447632</v>
       </c>
       <c r="S75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <v>-1.2442193031311035</v>
@@ -8866,10 +9275,10 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>0.0439453125</v>
+        <v>4.39453125E-2</v>
       </c>
       <c r="W75">
-        <v>-0.091552734375</v>
+        <v>-9.1552734375E-2</v>
       </c>
       <c r="X75">
         <v>-0.98329389095306396</v>
@@ -8884,16 +9293,16 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>0.057985030114650726</v>
+        <v>5.7985030114650726E-2</v>
       </c>
       <c r="AC75">
-        <v>0.011295673437416553</v>
+        <v>1.1295673437416553E-2</v>
       </c>
       <c r="AD75">
         <v>0.67230814695358276</v>
       </c>
       <c r="AE75">
-        <v>0.016898119822144508</v>
+        <v>1.6898119822144508E-2</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -8908,18 +9317,18 @@
         <v>0.829817299699253</v>
       </c>
       <c r="AJ75">
-        <v>0.029999814927577972</v>
+        <v>2.9999814927577972E-2</v>
       </c>
       <c r="AK75">
-        <v>0.016898119822144508</v>
+        <v>1.6898119822144508E-2</v>
       </c>
       <c r="AL75">
-        <v>0.014868591080712812</v>
+        <v>1.4868591080712812E-2</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:38">
       <c r="A76">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="B76">
         <v>-0.98258864879608154</v>
@@ -8934,10 +9343,11 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.024166213348507881</v>
+        <f t="shared" si="1"/>
+        <v>1.9968560892430249</v>
       </c>
       <c r="G76">
-        <v>0.0057427501305937767</v>
+        <v>5.7427501305937767E-3</v>
       </c>
       <c r="H76">
         <v>-92.566199960899411</v>
@@ -8973,7 +9383,7 @@
         <v>-0.98614466190338135</v>
       </c>
       <c r="S76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <v>-1.244451642036438</v>
@@ -8982,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>-0.010986328125</v>
+        <v>-1.0986328125E-2</v>
       </c>
       <c r="W76">
         <v>-0.140380859375</v>
@@ -9000,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>0.024166213348507881</v>
+        <v>2.4166213348507881E-2</v>
       </c>
       <c r="AC76">
-        <v>0.0057427501305937767</v>
+        <v>5.7427501305937767E-3</v>
       </c>
       <c r="AD76">
         <v>0.69218438863754272</v>
       </c>
       <c r="AE76">
-        <v>0.01291303988546133</v>
+        <v>1.291303988546133E-2</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -9027,13 +9437,13 @@
         <v>-2.9500002861022949</v>
       </c>
       <c r="AK76">
-        <v>0.01291303988546133</v>
+        <v>1.291303988546133E-2</v>
       </c>
       <c r="AL76">
-        <v>0.014432213151426843</v>
+        <v>1.4432213151426843E-2</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -9050,10 +9460,11 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>3.0927572250366211</v>
+        <f t="shared" si="1"/>
+        <v>1.9968661122328148</v>
       </c>
       <c r="G77">
-        <v>-0.0043224338442087173</v>
+        <v>-4.3224338442087173E-3</v>
       </c>
       <c r="H77">
         <v>-96.387161564368171</v>
@@ -9089,7 +9500,7 @@
         <v>-0.98642301559448242</v>
       </c>
       <c r="S77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T77">
         <v>-1.2537517547607422</v>
@@ -9119,13 +9530,13 @@
         <v>3.0927572250366211</v>
       </c>
       <c r="AC77">
-        <v>-0.0043224338442087173</v>
+        <v>-4.3224338442087173E-3</v>
       </c>
       <c r="AD77">
         <v>0.69669234752655029</v>
       </c>
       <c r="AE77">
-        <v>0.012879755347967148</v>
+        <v>1.2879755347967148E-2</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -9143,13 +9554,13 @@
         <v>-4.570000171661377</v>
       </c>
       <c r="AK77">
-        <v>0.012879755347967148</v>
+        <v>1.2879755347967148E-2</v>
       </c>
       <c r="AL77">
-        <v>0.036587492426753743</v>
+        <v>3.6587492426753743E-2</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>7.6000000000000005</v>
       </c>
@@ -9166,10 +9577,11 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2.9888358116149902</v>
+        <f t="shared" si="1"/>
+        <v>1.9968585681625868</v>
       </c>
       <c r="G78">
-        <v>-0.013221298344433308</v>
+        <v>-1.3221298344433308E-2</v>
       </c>
       <c r="H78">
         <v>-98.44289212969484</v>
@@ -9187,7 +9599,7 @@
         <v>198</v>
       </c>
       <c r="M78">
-        <v>0.090000003576278687</v>
+        <v>9.0000003576278687E-2</v>
       </c>
       <c r="N78">
         <v>4</v>
@@ -9205,7 +9617,7 @@
         <v>-0.98615121841430664</v>
       </c>
       <c r="S78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T78">
         <v>-1.2482651472091675</v>
@@ -9217,7 +9629,7 @@
         <v>-0.186767578125</v>
       </c>
       <c r="W78">
-        <v>-0.067138671875</v>
+        <v>-6.7138671875E-2</v>
       </c>
       <c r="X78">
         <v>-0.98743981122970581</v>
@@ -9235,13 +9647,13 @@
         <v>2.9888358116149902</v>
       </c>
       <c r="AC78">
-        <v>-0.013221298344433308</v>
+        <v>-1.3221298344433308E-2</v>
       </c>
       <c r="AD78">
         <v>0.70324909687042236</v>
       </c>
       <c r="AE78">
-        <v>0.01691645011305809</v>
+        <v>1.691645011305809E-2</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -9256,18 +9668,18 @@
         <v>0.77229021366445605</v>
       </c>
       <c r="AJ78">
-        <v>-0.019999867305159569</v>
+        <v>-1.9999867305159569E-2</v>
       </c>
       <c r="AK78">
-        <v>0.01691645011305809</v>
+        <v>1.691645011305809E-2</v>
       </c>
       <c r="AL78">
-        <v>0.034476689029632301</v>
+        <v>3.4476689029632301E-2</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:38">
       <c r="A79">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="B79">
         <v>-0.98516124486923218</v>
@@ -9282,10 +9694,11 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.9501240253448486</v>
+        <f t="shared" si="1"/>
+        <v>1.996835492643837</v>
       </c>
       <c r="G79">
-        <v>-0.015493663959205151</v>
+        <v>-1.5493663959205151E-2</v>
       </c>
       <c r="H79">
         <v>-91.537580654097582</v>
@@ -9321,7 +9734,7 @@
         <v>-0.97850781679153442</v>
       </c>
       <c r="S79">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T79">
         <v>-1.2602049112319946</v>
@@ -9333,7 +9746,7 @@
         <v>-0.2197265625</v>
       </c>
       <c r="W79">
-        <v>-0.06103515625</v>
+        <v>-6.103515625E-2</v>
       </c>
       <c r="X79">
         <v>-0.98516124486923218</v>
@@ -9351,13 +9764,13 @@
         <v>2.9501240253448486</v>
       </c>
       <c r="AC79">
-        <v>-0.015493663959205151</v>
+        <v>-1.5493663959205151E-2</v>
       </c>
       <c r="AD79">
         <v>0.63088011741638184</v>
       </c>
       <c r="AE79">
-        <v>0.0083502456545829773</v>
+        <v>8.3502456545829773E-3</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -9372,16 +9785,16 @@
         <v>0.80506693237447513</v>
       </c>
       <c r="AJ79">
-        <v>0.040000058710575104</v>
+        <v>4.0000058710575104E-2</v>
       </c>
       <c r="AK79">
-        <v>0.0083502456545829773</v>
+        <v>8.3502456545829773E-3</v>
       </c>
       <c r="AL79">
-        <v>-0.014437007778856814</v>
+        <v>-1.4437007778856814E-2</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>7.8000000000000007</v>
       </c>
@@ -9398,10 +9811,11 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>2.9258325099945068</v>
+        <f t="shared" si="1"/>
+        <v>1.9968084510989084</v>
       </c>
       <c r="G80">
-        <v>-0.015144682489335537</v>
+        <v>-1.5144682489335537E-2</v>
       </c>
       <c r="H80">
         <v>-95.108918388497585</v>
@@ -9437,19 +9851,19 @@
         <v>-0.98907071352005005</v>
       </c>
       <c r="S80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T80">
         <v>-1.2551759481430054</v>
       </c>
       <c r="U80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V80">
         <v>-0.208740234375</v>
       </c>
       <c r="W80">
-        <v>0.067138671875</v>
+        <v>6.7138671875E-2</v>
       </c>
       <c r="X80">
         <v>-0.98313844203948975</v>
@@ -9467,13 +9881,13 @@
         <v>2.9258325099945068</v>
       </c>
       <c r="AC80">
-        <v>-0.015144682489335537</v>
+        <v>-1.5144682489335537E-2</v>
       </c>
       <c r="AD80">
         <v>0.63212645053863525</v>
       </c>
       <c r="AE80">
-        <v>0.016761898994445801</v>
+        <v>1.6761898994445801E-2</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -9491,15 +9905,15 @@
         <v>-2.3799998760223389</v>
       </c>
       <c r="AK80">
-        <v>0.016761898994445801</v>
+        <v>1.6761898994445801E-2</v>
       </c>
       <c r="AL80">
-        <v>0.016411463660869097</v>
+        <v>1.6411463660869097E-2</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:38">
       <c r="A81">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="B81">
         <v>-0.99157065153121948</v>
@@ -9514,10 +9928,11 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2.965925931930542</v>
+        <f t="shared" si="1"/>
+        <v>1.9967820186415475</v>
       </c>
       <c r="G81">
-        <v>-0.0077832783572375774</v>
+        <v>-7.7832783572375774E-3</v>
       </c>
       <c r="H81">
         <v>-60</v>
@@ -9553,13 +9968,13 @@
         <v>-0.99462515115737915</v>
       </c>
       <c r="S81">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T81">
         <v>-1.2589823007583618</v>
       </c>
       <c r="U81">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V81">
         <v>-0.142822265625</v>
@@ -9583,13 +9998,13 @@
         <v>2.965925931930542</v>
       </c>
       <c r="AC81">
-        <v>-0.0077832783572375774</v>
+        <v>-7.7832783572375774E-3</v>
       </c>
       <c r="AD81">
         <v>0.6420435905456543</v>
       </c>
       <c r="AE81">
-        <v>0.016660064458847046</v>
+        <v>1.6660064458847046E-2</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -9604,16 +10019,16 @@
         <v>0.85199270230137569</v>
       </c>
       <c r="AJ81">
-        <v>-0.059999942779541016</v>
+        <v>-5.9999942779541016E-2</v>
       </c>
       <c r="AK81">
-        <v>0.016660064458847046</v>
+        <v>1.6660064458847046E-2</v>
       </c>
       <c r="AL81">
-        <v>-0.0081119232910615846</v>
+        <v>-8.1119232910615846E-3</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>8</v>
       </c>
@@ -9630,10 +10045,11 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>3.0606603622436523</v>
+        <f t="shared" si="1"/>
+        <v>1.9967684342581542</v>
       </c>
       <c r="G82">
-        <v>0.0025356286205351353</v>
+        <v>2.5356286205351353E-3</v>
       </c>
       <c r="H82">
         <v>-60</v>
@@ -9669,19 +10085,19 @@
         <v>-1.0022677183151245</v>
       </c>
       <c r="S82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T82">
         <v>-1.2457315921783447</v>
       </c>
       <c r="U82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>-0.0494384765625</v>
+        <v>-4.94384765625E-2</v>
       </c>
       <c r="W82">
-        <v>0.09765625</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="X82">
         <v>-1.0014446973800659</v>
@@ -9699,13 +10115,13 @@
         <v>3.0606603622436523</v>
       </c>
       <c r="AC82">
-        <v>0.0025356286205351353</v>
+        <v>2.5356286205351353E-3</v>
       </c>
       <c r="AD82">
         <v>0.65623342990875244</v>
       </c>
       <c r="AE82">
-        <v>0.016269683837890625</v>
+        <v>1.6269683837890625E-2</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -9723,15 +10139,15 @@
         <v>-2.5300002098083496</v>
       </c>
       <c r="AK82">
-        <v>0.016269683837890625</v>
+        <v>1.6269683837890625E-2</v>
       </c>
       <c r="AL82">
-        <v>0.057322298772589875</v>
+        <v>5.7322298772589875E-2</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:38">
       <c r="A83">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="B83">
         <v>-1.0011364221572876</v>
@@ -9746,10 +10162,11 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3.0938351154327393</v>
+        <f t="shared" si="1"/>
+        <v>1.9967728597649579</v>
       </c>
       <c r="G83">
-        <v>0.0015748526202514768</v>
+        <v>1.5748526202514768E-3</v>
       </c>
       <c r="H83">
         <v>-60</v>
@@ -9785,19 +10202,19 @@
         <v>-1.0001806020736694</v>
       </c>
       <c r="S83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>-1.2621928453445435</v>
       </c>
       <c r="U83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>-0.0494384765625</v>
+        <v>-4.94384765625E-2</v>
       </c>
       <c r="W83">
-        <v>0.06103515625</v>
+        <v>6.103515625E-2</v>
       </c>
       <c r="X83">
         <v>-1.0011364221572876</v>
@@ -9815,13 +10232,13 @@
         <v>3.0938351154327393</v>
       </c>
       <c r="AC83">
-        <v>0.0015748526202514768</v>
+        <v>1.5748526202514768E-3</v>
       </c>
       <c r="AD83">
         <v>0.5811842679977417</v>
       </c>
       <c r="AE83">
-        <v>0.0035117832012474537</v>
+        <v>3.5117832012474537E-3</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -9839,13 +10256,13 @@
         <v>-4.9499998092651367</v>
       </c>
       <c r="AK83">
-        <v>0.0035117832012474537</v>
+        <v>3.5117832012474537E-3</v>
       </c>
       <c r="AL83">
-        <v>0.034146457798075458</v>
+        <v>3.4146457798075458E-2</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>8.2000000000000011</v>
       </c>
@@ -9862,10 +10279,11 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.13067688047885895</v>
+        <f t="shared" si="1"/>
+        <v>1.9967756084013035</v>
       </c>
       <c r="G84">
-        <v>0.029410535469651222</v>
+        <v>2.9410535469651222E-2</v>
       </c>
       <c r="H84">
         <v>-60</v>
@@ -9901,13 +10319,13 @@
         <v>-0.99490827322006226</v>
       </c>
       <c r="S84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <v>-1.2585104703903198</v>
       </c>
       <c r="U84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>0.230712890625</v>
@@ -9931,13 +10349,13 @@
         <v>0.13067688047885895</v>
       </c>
       <c r="AC84">
-        <v>0.029410535469651222</v>
+        <v>2.9410535469651222E-2</v>
       </c>
       <c r="AD84">
         <v>0.60504382848739624</v>
       </c>
       <c r="AE84">
-        <v>0.0074266400188207626</v>
+        <v>7.4266400188207626E-3</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -9955,13 +10373,13 @@
         <v>2.429999828338623</v>
       </c>
       <c r="AK84">
-        <v>0.0074266400188207626</v>
+        <v>7.4266400188207626E-3</v>
       </c>
       <c r="AL84">
-        <v>0.014594492088276234</v>
+        <v>1.4594492088276234E-2</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -9978,10 +10396,11 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.4487040638923645</v>
+        <f t="shared" si="1"/>
+        <v>1.9968269394691756</v>
       </c>
       <c r="G85">
-        <v>0.064293988049030304</v>
+        <v>6.4293988049030304E-2</v>
       </c>
       <c r="H85">
         <v>-60</v>
@@ -10017,13 +10436,13 @@
         <v>-0.99579930305480957</v>
       </c>
       <c r="S85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T85">
         <v>-1.2731832265853882</v>
       </c>
       <c r="U85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0.6097412109375</v>
@@ -10047,13 +10466,13 @@
         <v>0.4487040638923645</v>
       </c>
       <c r="AC85">
-        <v>0.064293988049030304</v>
+        <v>6.4293988049030304E-2</v>
       </c>
       <c r="AD85">
         <v>0.60179340839385986</v>
       </c>
       <c r="AE85">
-        <v>0.012014723382890224</v>
+        <v>1.2014723382890224E-2</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -10071,15 +10490,15 @@
         <v>-4.7200002670288086</v>
       </c>
       <c r="AK85">
-        <v>0.012014723382890224</v>
+        <v>1.2014723382890224E-2</v>
       </c>
       <c r="AL85">
-        <v>0.059881729350036994</v>
+        <v>5.9881729350036994E-2</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:38">
       <c r="A86">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="B86">
         <v>-0.99492567777633667</v>
@@ -10094,10 +10513,11 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.72844892740249634</v>
+        <f t="shared" si="1"/>
+        <v>1.9969391536472449</v>
       </c>
       <c r="G86">
-        <v>0.087122298777103424</v>
+        <v>8.7122298777103424E-2</v>
       </c>
       <c r="H86">
         <v>-60</v>
@@ -10115,7 +10535,7 @@
         <v>167</v>
       </c>
       <c r="M86">
-        <v>0.059999998658895493</v>
+        <v>5.9999998658895493E-2</v>
       </c>
       <c r="N86">
         <v>4</v>
@@ -10133,13 +10553,13 @@
         <v>-0.99964064359664917</v>
       </c>
       <c r="S86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>-1.2956013679504395</v>
       </c>
       <c r="U86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V86">
         <v>0.9283447265625</v>
@@ -10163,13 +10583,13 @@
         <v>0.72844892740249634</v>
       </c>
       <c r="AC86">
-        <v>0.087122298777103424</v>
+        <v>8.7122298777103424E-2</v>
       </c>
       <c r="AD86">
         <v>0.59060007333755493</v>
       </c>
       <c r="AE86">
-        <v>0.0031400579027831554</v>
+        <v>3.1400579027831554E-3</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -10184,16 +10604,16 @@
         <v>0.81710092991210215</v>
       </c>
       <c r="AJ86">
-        <v>-0.019999995827674866</v>
+        <v>-1.9999995827674866E-2</v>
       </c>
       <c r="AK86">
-        <v>0.0031400579027831554</v>
+        <v>3.1400579027831554E-3</v>
       </c>
       <c r="AL86">
-        <v>0.01178898940441464</v>
+        <v>1.178898940441464E-2</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:38">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -10210,7 +10630,8 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.93682092428207397</v>
+        <f t="shared" si="1"/>
+        <v>1.9970912107438017</v>
       </c>
       <c r="G87">
         <v>0.10278403759002686</v>
@@ -10231,7 +10652,7 @@
         <v>209</v>
       </c>
       <c r="M87">
-        <v>0.079999998211860657</v>
+        <v>7.9999998211860657E-2</v>
       </c>
       <c r="N87">
         <v>4</v>
@@ -10249,13 +10670,13 @@
         <v>-0.98678737878799438</v>
       </c>
       <c r="S87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T87">
         <v>-1.3050512075424194</v>
       </c>
       <c r="U87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V87">
         <v>1.12060546875</v>
@@ -10285,7 +10706,7 @@
         <v>0.61614251136779785</v>
       </c>
       <c r="AE87">
-        <v>0.011824902147054672</v>
+        <v>1.1824902147054672E-2</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -10303,15 +10724,15 @@
         <v>2.2100000381469727</v>
       </c>
       <c r="AK87">
-        <v>0.011824902147054672</v>
+        <v>1.1824902147054672E-2</v>
       </c>
       <c r="AL87">
-        <v>0.010328742087352794</v>
+        <v>1.0328742087352794E-2</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:38">
       <c r="A88">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="B88">
         <v>-0.99057269096374512</v>
@@ -10326,7 +10747,8 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.0815650224685669</v>
+        <f t="shared" si="1"/>
+        <v>1.9972706027312457</v>
       </c>
       <c r="G88">
         <v>0.11254525929689407</v>
@@ -10365,13 +10787,13 @@
         <v>-0.98974400758743286</v>
       </c>
       <c r="S88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T88">
         <v>-1.3095788955688477</v>
       </c>
       <c r="U88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V88">
         <v>1.20849609375</v>
@@ -10401,7 +10823,7 @@
         <v>0.61835753917694092</v>
       </c>
       <c r="AE88">
-        <v>0.011530800722539425</v>
+        <v>1.1530800722539425E-2</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -10416,16 +10838,16 @@
         <v>0.76566118934162009</v>
       </c>
       <c r="AJ88">
-        <v>-0.069999992847442627</v>
+        <v>-6.9999992847442627E-2</v>
       </c>
       <c r="AK88">
-        <v>0.011530800722539425</v>
+        <v>1.1530800722539425E-2</v>
       </c>
       <c r="AL88">
-        <v>0.0066290243228359635</v>
+        <v>6.6290243228359635E-3</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:38">
       <c r="A89">
         <v>8.7000000000000011</v>
       </c>
@@ -10442,7 +10864,8 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.1651902198791504</v>
+        <f t="shared" si="1"/>
+        <v>1.9974670312644698</v>
       </c>
       <c r="G89">
         <v>0.11672276258468628</v>
@@ -10481,13 +10904,13 @@
         <v>-0.98978835344314575</v>
       </c>
       <c r="S89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T89">
         <v>-1.3075535297393799</v>
       </c>
       <c r="U89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V89">
         <v>1.3018798828125</v>
@@ -10517,7 +10940,7 @@
         <v>0.62828457355499268</v>
       </c>
       <c r="AE89">
-        <v>0.011634199880063534</v>
+        <v>1.1634199880063534E-2</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -10535,13 +10958,13 @@
         <v>-2.4200000762939453</v>
       </c>
       <c r="AK89">
-        <v>0.011634199880063534</v>
+        <v>1.1634199880063534E-2</v>
       </c>
       <c r="AL89">
-        <v>0.057306693905019523</v>
+        <v>5.7306693905019523E-2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:38">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -10558,7 +10981,8 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.2871954441070557</v>
+        <f t="shared" si="1"/>
+        <v>1.9976707509163825</v>
       </c>
       <c r="G90">
         <v>0.11851825565099716</v>
@@ -10597,19 +11021,19 @@
         <v>-0.98481100797653198</v>
       </c>
       <c r="S90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T90">
         <v>-1.3163892030715942</v>
       </c>
       <c r="U90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V90">
         <v>1.3568115234375</v>
       </c>
       <c r="W90">
-        <v>0.067138671875</v>
+        <v>6.7138671875E-2</v>
       </c>
       <c r="X90">
         <v>-0.98967283964157104</v>
@@ -10633,7 +11057,7 @@
         <v>0.58271276950836182</v>
       </c>
       <c r="AE90">
-        <v>0.0029266735073179007</v>
+        <v>2.9266735073179007E-3</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -10648,18 +11072,18 @@
         <v>0.83353285388874132</v>
       </c>
       <c r="AJ90">
-        <v>0.020000005140900612</v>
+        <v>2.0000005140900612E-2</v>
       </c>
       <c r="AK90">
-        <v>0.0029266735073179007</v>
+        <v>2.9266735073179007E-3</v>
       </c>
       <c r="AL90">
-        <v>0.013170320012753978</v>
+        <v>1.3170320012753978E-2</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:38">
       <c r="A91">
-        <v>8.9000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="B91">
         <v>-0.98176038265228271</v>
@@ -10674,7 +11098,8 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.3885505199432373</v>
+        <f t="shared" si="1"/>
+        <v>1.9978776042948654</v>
       </c>
       <c r="G91">
         <v>0.11773195117712021</v>
@@ -10713,13 +11138,13 @@
         <v>-0.97664594650268555</v>
       </c>
       <c r="S91">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T91">
         <v>-1.3109208345413208</v>
       </c>
       <c r="U91">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V91">
         <v>1.4227294921875</v>
@@ -10749,7 +11174,7 @@
         <v>0.62783133983612061</v>
       </c>
       <c r="AE91">
-        <v>0.011604329571127892</v>
+        <v>1.1604329571127892E-2</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -10767,13 +11192,13 @@
         <v>-2.3899998664855957</v>
       </c>
       <c r="AK91">
-        <v>0.011604329571127892</v>
+        <v>1.1604329571127892E-2</v>
       </c>
       <c r="AL91">
-        <v>0.037299270015560992</v>
+        <v>3.7299270015560992E-2</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:38">
       <c r="A92">
         <v>9</v>
       </c>
@@ -10790,7 +11215,8 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.4397222995758057</v>
+        <f t="shared" si="1"/>
+        <v>1.9980830853131493</v>
       </c>
       <c r="G92">
         <v>0.11184554547071457</v>
@@ -10829,13 +11255,13 @@
         <v>-0.96902400255203247</v>
       </c>
       <c r="S92">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>-1.3211925029754639</v>
       </c>
       <c r="U92">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>1.4666748046875</v>
@@ -10865,7 +11291,7 @@
         <v>0.62421345710754395</v>
       </c>
       <c r="AE92">
-        <v>0.0071674389764666557</v>
+        <v>7.1674389764666557E-3</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -10880,18 +11306,18 @@
         <v>0.7453106143359326</v>
       </c>
       <c r="AJ92">
-        <v>-0.069999724626541138</v>
+        <v>-6.9999724626541138E-2</v>
       </c>
       <c r="AK92">
-        <v>0.0071674389764666557</v>
+        <v>7.1674389764666557E-3</v>
       </c>
       <c r="AL92">
-        <v>0.0025900679416566152</v>
+        <v>2.5900679416566152E-3</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:38">
       <c r="A93">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="B93">
         <v>-0.9657665491104126</v>
@@ -10906,7 +11332,8 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.5518996715545654</v>
+        <f t="shared" si="1"/>
+        <v>1.9982782926153646</v>
       </c>
       <c r="G93">
         <v>0.11637349426746368</v>
@@ -10945,13 +11372,13 @@
         <v>-0.96380871534347534</v>
       </c>
       <c r="S93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>-1.3210861682891846</v>
       </c>
       <c r="U93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>1.6094970703125</v>
@@ -10981,7 +11408,7 @@
         <v>0.65303957462310791</v>
       </c>
       <c r="AE93">
-        <v>0.011448262259364128</v>
+        <v>1.1448262259364128E-2</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -10999,13 +11426,13 @@
         <v>0.13999974727630615</v>
       </c>
       <c r="AK93">
-        <v>0.011448262259364128</v>
+        <v>1.1448262259364128E-2</v>
       </c>
       <c r="AL93">
-        <v>0.0037318109453843284</v>
+        <v>3.7318109453843284E-3</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:38">
       <c r="A94">
         <v>9.2000000000000011</v>
       </c>
@@ -11022,7 +11449,8 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.6249923706054688</v>
+        <f t="shared" si="1"/>
+        <v>1.9984814026790665</v>
       </c>
       <c r="G94">
         <v>0.11790861934423447</v>
@@ -11061,13 +11489,13 @@
         <v>-0.96121150255203247</v>
       </c>
       <c r="S94">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T94">
         <v>-1.3207352161407471</v>
       </c>
       <c r="U94">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V94">
         <v>1.669921875</v>
@@ -11097,7 +11525,7 @@
         <v>0.64670050144195557</v>
       </c>
       <c r="AE94">
-        <v>0.01141559612005949</v>
+        <v>1.141559612005949E-2</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -11112,16 +11540,16 @@
         <v>0.83181539559483109</v>
       </c>
       <c r="AJ94">
-        <v>0.069999843835830688</v>
+        <v>6.9999843835830688E-2</v>
       </c>
       <c r="AK94">
-        <v>0.01141559612005949</v>
+        <v>1.141559612005949E-2</v>
       </c>
       <c r="AL94">
-        <v>0.011535045597420246</v>
+        <v>1.1535045597420246E-2</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:38">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -11138,7 +11566,8 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.7003054618835449</v>
+        <f t="shared" si="1"/>
+        <v>1.9986871920414702</v>
       </c>
       <c r="G95">
         <v>0.11792823672294617</v>
@@ -11177,13 +11606,13 @@
         <v>-0.95889312028884888</v>
       </c>
       <c r="S95">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T95">
         <v>-1.3280161619186401</v>
       </c>
       <c r="U95">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V95">
         <v>1.73583984375</v>
@@ -11213,7 +11642,7 @@
         <v>0.64319264888763428</v>
       </c>
       <c r="AE95">
-        <v>0.011382926255464554</v>
+        <v>1.1382926255464554E-2</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -11228,18 +11657,18 @@
         <v>0.7647420127897735</v>
       </c>
       <c r="AJ95">
-        <v>-0.030000157654285431</v>
+        <v>-3.0000157654285431E-2</v>
       </c>
       <c r="AK95">
-        <v>0.011382926255464554</v>
+        <v>1.1382926255464554E-2</v>
       </c>
       <c r="AL95">
-        <v>0.0051935575594425076</v>
+        <v>5.1935575594425076E-3</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:38">
       <c r="A96">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="B96">
         <v>-0.95403820276260376</v>
@@ -11254,7 +11683,8 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.7524702548980713</v>
+        <f t="shared" si="1"/>
+        <v>1.9988930156426588</v>
       </c>
       <c r="G96">
         <v>0.11603466421365738</v>
@@ -11293,19 +11723,19 @@
         <v>-0.95072239637374878</v>
       </c>
       <c r="S96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>-1.3230243921279907</v>
       </c>
       <c r="U96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V96">
         <v>1.7742919921875</v>
       </c>
       <c r="W96">
-        <v>0.054931640625</v>
+        <v>5.4931640625E-2</v>
       </c>
       <c r="X96">
         <v>-0.95403820276260376</v>
@@ -11329,7 +11759,7 @@
         <v>0.66215986013412476</v>
       </c>
       <c r="AE96">
-        <v>0.011098274029791355</v>
+        <v>1.1098274029791355E-2</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -11347,13 +11777,13 @@
         <v>-2.4699997901916504</v>
       </c>
       <c r="AK96">
-        <v>0.011098274029791355</v>
+        <v>1.1098274029791355E-2</v>
       </c>
       <c r="AL96">
-        <v>0.033510093658782214</v>
+        <v>3.3510093658782214E-2</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:38">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -11370,7 +11800,8 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.8010684251785278</v>
+        <f t="shared" si="1"/>
+        <v>1.9990955343363561</v>
       </c>
       <c r="G97">
         <v>0.11202090233564377</v>
@@ -11409,19 +11840,19 @@
         <v>-0.95075595378875732</v>
       </c>
       <c r="S97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>-1.3219524621963501</v>
       </c>
       <c r="U97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V97">
         <v>1.8182373046875</v>
       </c>
       <c r="W97">
-        <v>-0.006103515625</v>
+        <v>-6.103515625E-3</v>
       </c>
       <c r="X97">
         <v>-0.9491046667098999</v>
@@ -11445,7 +11876,7 @@
         <v>0.64601373672485352</v>
       </c>
       <c r="AE97">
-        <v>0.0066671213135123253</v>
+        <v>6.6671213135123253E-3</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -11460,16 +11891,16 @@
         <v>0.76056282220859828</v>
       </c>
       <c r="AJ97">
-        <v>-0.030000096186995506</v>
+        <v>-3.0000096186995506E-2</v>
       </c>
       <c r="AK97">
-        <v>0.0066671213135123253</v>
+        <v>6.6671213135123253E-3</v>
       </c>
       <c r="AL97">
-        <v>0.030395870405854453</v>
+        <v>3.0395870405854453E-2</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:38">
       <c r="A98">
         <v>9.6000000000000014</v>
       </c>
@@ -11486,7 +11917,8 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.7919133901596069</v>
+        <f t="shared" si="1"/>
+        <v>1.9992910476940373</v>
       </c>
       <c r="G98">
         <v>0.10005092620849609</v>
@@ -11525,7 +11957,7 @@
         <v>-0.94544786214828491</v>
       </c>
       <c r="S98">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T98">
         <v>-1.3251814842224121</v>
@@ -11537,7 +11969,7 @@
         <v>1.77978515625</v>
       </c>
       <c r="W98">
-        <v>-0.0244140625</v>
+        <v>-2.44140625E-2</v>
       </c>
       <c r="X98">
         <v>-0.94642126560211182</v>
@@ -11561,7 +11993,7 @@
         <v>0.66872262954711914</v>
       </c>
       <c r="AE98">
-        <v>0.0065972264856100082</v>
+        <v>6.5972264856100082E-3</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -11576,16 +12008,16 @@
         <v>0.73719507102734638</v>
       </c>
       <c r="AJ98">
-        <v>-0.029999973252415657</v>
+        <v>-2.9999973252415657E-2</v>
       </c>
       <c r="AK98">
-        <v>0.0065972264856100082</v>
+        <v>6.5972264856100082E-3</v>
       </c>
       <c r="AL98">
-        <v>0.028466118314273703</v>
+        <v>2.8466118314273703E-2</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:38">
       <c r="A99">
         <v>9.7000000000000011</v>
       </c>
@@ -11602,10 +12034,11 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.7658885717391968</v>
+        <f t="shared" si="1"/>
+        <v>1.9994656695022381</v>
       </c>
       <c r="G99">
-        <v>0.088732555508613586</v>
+        <v>8.8732555508613586E-2</v>
       </c>
       <c r="H99">
         <v>-85.311017167335478</v>
@@ -11641,19 +12074,19 @@
         <v>-0.93751394748687744</v>
       </c>
       <c r="S99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T99">
         <v>-1.3291318416595459</v>
       </c>
       <c r="U99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V99">
         <v>1.768798828125</v>
       </c>
       <c r="W99">
-        <v>0.03662109375</v>
+        <v>3.662109375E-2</v>
       </c>
       <c r="X99">
         <v>-0.9379240870475769</v>
@@ -11671,13 +12104,13 @@
         <v>1.7658885717391968</v>
       </c>
       <c r="AC99">
-        <v>0.088732555508613586</v>
+        <v>8.8732555508613586E-2</v>
       </c>
       <c r="AD99">
         <v>0.66039842367172241</v>
       </c>
       <c r="AE99">
-        <v>0.0062918676994740963</v>
+        <v>6.2918676994740963E-3</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -11695,13 +12128,13 @@
         <v>-2.4500000476837158</v>
       </c>
       <c r="AK99">
-        <v>0.0062918676994740963</v>
+        <v>6.2918676994740963E-3</v>
       </c>
       <c r="AL99">
-        <v>0.050676024180731583</v>
+        <v>5.0676024180731583E-2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:38">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -11718,10 +12151,11 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.707772970199585</v>
+        <f t="shared" si="1"/>
+        <v>1.9996205370269715</v>
       </c>
       <c r="G100">
-        <v>0.068982183933258057</v>
+        <v>6.8982183933258057E-2</v>
       </c>
       <c r="H100">
         <v>-61.306855260195313</v>
@@ -11757,7 +12191,7 @@
         <v>-0.93218535184860229</v>
       </c>
       <c r="S100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T100">
         <v>-1.3330757617950439</v>
@@ -11769,7 +12203,7 @@
         <v>1.6864013671875</v>
       </c>
       <c r="W100">
-        <v>-0.0732421875</v>
+        <v>-7.32421875E-2</v>
       </c>
       <c r="X100">
         <v>-0.93330210447311401</v>
@@ -11787,13 +12221,13 @@
         <v>1.707772970199585</v>
       </c>
       <c r="AC100">
-        <v>0.068982183933258057</v>
+        <v>6.8982183933258057E-2</v>
       </c>
       <c r="AD100">
         <v>0.56304967403411865</v>
       </c>
       <c r="AE100">
-        <v>0.001893602660857141</v>
+        <v>1.893602660857141E-3</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -11811,15 +12245,15 @@
         <v>2.4300000667572021</v>
       </c>
       <c r="AK100">
-        <v>0.001893602660857141</v>
+        <v>1.893602660857141E-3</v>
       </c>
       <c r="AL100">
-        <v>0.059053285317348547</v>
+        <v>5.9053285317348547E-2</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:38">
       <c r="A101">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="B101">
         <v>-0.92636048793792725</v>
@@ -11834,10 +12268,11 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.7868067026138306</v>
+        <f t="shared" si="1"/>
+        <v>1.9997409336504566</v>
       </c>
       <c r="G101">
-        <v>0.07307782769203186</v>
+        <v>7.307782769203186E-2</v>
       </c>
       <c r="H101">
         <v>-98.503257715963542</v>
@@ -11873,13 +12308,13 @@
         <v>-0.9269874095916748</v>
       </c>
       <c r="S101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T101">
         <v>-1.3327313661575317</v>
       </c>
       <c r="U101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V101">
         <v>1.8292236328125</v>
@@ -11903,13 +12338,13 @@
         <v>1.7868067026138306</v>
       </c>
       <c r="AC101">
-        <v>0.07307782769203186</v>
+        <v>7.307782769203186E-2</v>
       </c>
       <c r="AD101">
         <v>0.4418061375617981</v>
       </c>
       <c r="AE101">
-        <v>0.0018661593785509467</v>
+        <v>1.8661593785509467E-3</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -11924,16 +12359,16 @@
         <v>0.78232408872344716</v>
       </c>
       <c r="AJ101">
-        <v>-0.020000007003545761</v>
+        <v>-2.0000007003545761E-2</v>
       </c>
       <c r="AK101">
-        <v>0.0018661593785509467</v>
+        <v>1.8661593785509467E-3</v>
       </c>
       <c r="AL101">
-        <v>0.032369343562367536</v>
+        <v>3.2369343562367536E-2</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:38">
       <c r="A102">
         <v>10</v>
       </c>
@@ -11950,10 +12385,11 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.8718496561050415</v>
+        <f t="shared" si="1"/>
+        <v>1.9998684785207996</v>
       </c>
       <c r="G102">
-        <v>0.06609075516462326</v>
+        <v>6.609075516462326E-2</v>
       </c>
       <c r="H102">
         <v>-60</v>
@@ -11989,19 +12425,19 @@
         <v>-0.92175167798995972</v>
       </c>
       <c r="S102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T102">
         <v>-1.3336974382400513</v>
       </c>
       <c r="U102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V102">
         <v>1.8896484375</v>
       </c>
       <c r="W102">
-        <v>0.08544921875</v>
+        <v>8.544921875E-2</v>
       </c>
       <c r="X102">
         <v>-0.92204320430755615</v>
@@ -12019,13 +12455,13 @@
         <v>1.8718496561050415</v>
       </c>
       <c r="AC102">
-        <v>0.06609075516462326</v>
+        <v>6.609075516462326E-2</v>
       </c>
       <c r="AD102">
         <v>0.39239439368247986</v>
       </c>
       <c r="AE102">
-        <v>0.010586344636976719</v>
+        <v>1.0586344636976719E-2</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -12043,13 +12479,13 @@
         <v>2.5</v>
       </c>
       <c r="AK102">
-        <v>0.010586344636976719</v>
+        <v>1.0586344636976719E-2</v>
       </c>
       <c r="AL102">
-        <v>-0.00026894114132736124</v>
+        <v>-2.6894114132736124E-4</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:38">
       <c r="A103">
         <v>10.100000000000001</v>
       </c>
@@ -12066,10 +12502,11 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>2.1545884609222412</v>
+        <f t="shared" si="1"/>
+        <v>1.9999838286490748</v>
       </c>
       <c r="G103">
-        <v>0.079043552279472351</v>
+        <v>7.9043552279472351E-2</v>
       </c>
       <c r="H103">
         <v>-60</v>
@@ -12105,19 +12542,19 @@
         <v>-0.90640658140182495</v>
       </c>
       <c r="S103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T103">
         <v>-1.3422031402587891</v>
       </c>
       <c r="U103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V103">
         <v>2.1807861328125</v>
       </c>
       <c r="W103">
-        <v>0.06103515625</v>
+        <v>6.103515625E-2</v>
       </c>
       <c r="X103">
         <v>-0.90956932306289673</v>
@@ -12135,13 +12572,13 @@
         <v>2.1545884609222412</v>
       </c>
       <c r="AC103">
-        <v>0.079043552279472351</v>
+        <v>7.9043552279472351E-2</v>
       </c>
       <c r="AD103">
         <v>0.41147124767303467</v>
       </c>
       <c r="AE103">
-        <v>0.014892340637743473</v>
+        <v>1.4892340637743473E-2</v>
       </c>
       <c r="AF103">
         <v>1</v>
@@ -12159,13 +12596,13 @@
         <v>2.5299999713897705</v>
       </c>
       <c r="AK103">
-        <v>0.014892340637743473</v>
+        <v>1.4892340637743473E-2</v>
       </c>
       <c r="AL103">
-        <v>0.025058630613785327</v>
+        <v>2.5058630613785327E-2</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:38">
       <c r="A104">
         <v>10.200000000000001</v>
       </c>
@@ -12182,10 +12619,11 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2.1788280010223389</v>
+        <f t="shared" si="1"/>
+        <v>2.0001217856730498</v>
       </c>
       <c r="G104">
-        <v>0.060002598911523819</v>
+        <v>6.0002598911523819E-2</v>
       </c>
       <c r="H104">
         <v>-73.447156466651094</v>
@@ -12221,7 +12659,7 @@
         <v>-0.86651086807250977</v>
       </c>
       <c r="S104">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T104">
         <v>-1.3526555299758911</v>
@@ -12233,7 +12671,7 @@
         <v>2.1697998046875</v>
       </c>
       <c r="W104">
-        <v>-0.048828125</v>
+        <v>-4.8828125E-2</v>
       </c>
       <c r="X104">
         <v>-0.87629342079162598</v>
@@ -12251,13 +12689,13 @@
         <v>2.1788280010223389</v>
       </c>
       <c r="AC104">
-        <v>0.060002598911523819</v>
+        <v>6.0002598911523819E-2</v>
       </c>
       <c r="AD104">
         <v>0.36951938271522522</v>
       </c>
       <c r="AE104">
-        <v>0.0054973671212792397</v>
+        <v>5.4973671212792397E-3</v>
       </c>
       <c r="AF104">
         <v>1</v>
@@ -12275,15 +12713,15 @@
         <v>-2.5400002002716064</v>
       </c>
       <c r="AK104">
-        <v>0.0054973671212792397</v>
+        <v>5.4973671212792397E-3</v>
       </c>
       <c r="AL104">
-        <v>0.05778153874885994</v>
+        <v>5.778153874885994E-2</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:38">
       <c r="A105">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="B105">
         <v>-0.81598365306854248</v>
@@ -12298,10 +12736,11 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.4365530014038086</v>
+        <f t="shared" si="1"/>
+        <v>2.0002265099641257</v>
       </c>
       <c r="G105">
-        <v>-0.042534321546554565</v>
+        <v>-4.2534321546554565E-2</v>
       </c>
       <c r="H105">
         <v>-73.447156466651094</v>
@@ -12319,7 +12758,7 @@
         <v>32</v>
       </c>
       <c r="M105">
-        <v>0.090000003576278687</v>
+        <v>9.0000003576278687E-2</v>
       </c>
       <c r="N105">
         <v>4</v>
@@ -12337,7 +12776,7 @@
         <v>-0.80992943048477173</v>
       </c>
       <c r="S105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T105">
         <v>-1.3812440633773804</v>
@@ -12367,13 +12806,13 @@
         <v>1.4365530014038086</v>
       </c>
       <c r="AC105">
-        <v>-0.042534321546554565</v>
+        <v>-4.2534321546554565E-2</v>
       </c>
       <c r="AD105">
         <v>0.39194959402084351</v>
       </c>
       <c r="AE105">
-        <v>0.0098147019743919373</v>
+        <v>9.8147019743919373E-3</v>
       </c>
       <c r="AF105">
         <v>1</v>
@@ -12391,13 +12830,13 @@
         <v>0</v>
       </c>
       <c r="AK105">
-        <v>0.0098147019743919373</v>
+        <v>9.8147019743919373E-3</v>
       </c>
       <c r="AL105">
-        <v>0.076474201278977305</v>
+        <v>7.6474201278977305E-2</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:38">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -12414,7 +12853,8 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.67736053466796875</v>
+        <f t="shared" si="1"/>
+        <v>2.0001522735685167</v>
       </c>
       <c r="G106">
         <v>-0.37956321239471436</v>
@@ -12453,7 +12893,7 @@
         <v>-0.71410596370697021</v>
       </c>
       <c r="S106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T106">
         <v>-1.3856301307678223</v>
@@ -12489,7 +12929,7 @@
         <v>0.17854933440685272</v>
       </c>
       <c r="AE106">
-        <v>0.00011186618939973414</v>
+        <v>1.1186618939973414E-4</v>
       </c>
       <c r="AF106">
         <v>1</v>
@@ -12507,13 +12947,13 @@
         <v>2.3900001049041748</v>
       </c>
       <c r="AK106">
-        <v>0.00011186618939973414</v>
+        <v>1.1186618939973414E-4</v>
       </c>
       <c r="AL106">
-        <v>0.054459084364429589</v>
+        <v>5.4459084364429589E-2</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:38">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -12530,7 +12970,8 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>2.2530200481414795</v>
+        <f t="shared" si="1"/>
+        <v>1.9994898107909431</v>
       </c>
       <c r="G107">
         <v>-0.79992580413818359</v>
@@ -12569,7 +13010,7 @@
         <v>-0.61701828241348267</v>
       </c>
       <c r="S107">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T107">
         <v>-1.3640459775924683</v>
@@ -12602,10 +13043,10 @@
         <v>-0.79992580413818359</v>
       </c>
       <c r="AD107">
-        <v>0.046032246202230453</v>
+        <v>4.6032246202230453E-2</v>
       </c>
       <c r="AE107">
-        <v>-0.012980330735445023</v>
+        <v>-1.2980330735445023E-2</v>
       </c>
       <c r="AF107">
         <v>1</v>
@@ -12623,13 +13064,13 @@
         <v>12.460000038146973</v>
       </c>
       <c r="AK107">
-        <v>-0.012980330735445023</v>
+        <v>-1.2980330735445023E-2</v>
       </c>
       <c r="AL107">
-        <v>-0.048543722928981459</v>
+        <v>-4.8543722928981459E-2</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:38">
       <c r="A108">
         <v>10.600000000000001</v>
       </c>
@@ -12646,7 +13087,8 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.6328006982803345</v>
+        <f t="shared" si="1"/>
+        <v>1.9980936768855557</v>
       </c>
       <c r="G108">
         <v>-0.82110452651977539</v>
@@ -12685,7 +13127,7 @@
         <v>-0.59314608573913574</v>
       </c>
       <c r="S108">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T108">
         <v>-1.3891263008117676</v>
@@ -12721,7 +13163,7 @@
         <v>0.10438244789838791</v>
       </c>
       <c r="AE108">
-        <v>0.0098656108602881432</v>
+        <v>9.8656108602881432E-3</v>
       </c>
       <c r="AF108">
         <v>1</v>
@@ -12739,13 +13181,13 @@
         <v>0</v>
       </c>
       <c r="AK108">
-        <v>0.0098656108602881432</v>
+        <v>9.8656108602881432E-3</v>
       </c>
       <c r="AL108">
-        <v>0.073719507102734672</v>
+        <v>7.3719507102734672E-2</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:38">
       <c r="A109">
         <v>10.700000000000001</v>
       </c>
@@ -12762,7 +13204,8 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.1457060575485229</v>
+        <f t="shared" si="1"/>
+        <v>1.9966605791364758</v>
       </c>
       <c r="G109">
         <v>-0.83592575788497925</v>
@@ -12801,7 +13244,7 @@
         <v>-0.57459831237792969</v>
       </c>
       <c r="S109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T109">
         <v>-1.4113168716430664</v>
@@ -12834,10 +13277,10 @@
         <v>-0.83592575788497925</v>
       </c>
       <c r="AD109">
-        <v>0.082860089838504791</v>
+        <v>8.2860089838504791E-2</v>
       </c>
       <c r="AE109">
-        <v>-0.012810017913579941</v>
+        <v>-1.2810017913579941E-2</v>
       </c>
       <c r="AF109">
         <v>1</v>
@@ -12855,15 +13298,15 @@
         <v>-2.4099998474121094</v>
       </c>
       <c r="AK109">
-        <v>-0.012810017913579941</v>
+        <v>-1.2810017913579941E-2</v>
       </c>
       <c r="AL109">
-        <v>0.069708421428872458</v>
+        <v>6.9708421428872458E-2</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:38">
       <c r="A110">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="B110">
         <v>-0.57380968332290649</v>
@@ -12878,7 +13321,8 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0.45072391629219055</v>
+        <f t="shared" si="1"/>
+        <v>1.9952016134587436</v>
       </c>
       <c r="G110">
         <v>-0.85268628597259521</v>
@@ -12917,7 +13361,7 @@
         <v>-0.5665518045425415</v>
       </c>
       <c r="S110">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T110">
         <v>-1.4150547981262207</v>
@@ -12950,10 +13394,10 @@
         <v>-0.85268628597259521</v>
       </c>
       <c r="AD110">
-        <v>0.08335760235786438</v>
+        <v>8.335760235786438E-2</v>
       </c>
       <c r="AE110">
-        <v>-0.012686445377767086</v>
+        <v>-1.2686445377767086E-2</v>
       </c>
       <c r="AF110">
         <v>1</v>
@@ -12971,13 +13415,13 @@
         <v>0</v>
       </c>
       <c r="AK110">
-        <v>-0.012686445377767086</v>
+        <v>-1.2686445377767086E-2</v>
       </c>
       <c r="AL110">
-        <v>0.077447956857139233</v>
+        <v>7.7447956857139233E-2</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:38">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -12994,7 +13438,8 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>2.4634521007537842</v>
+        <f t="shared" si="1"/>
+        <v>1.9937133951410613</v>
       </c>
       <c r="G111">
         <v>-0.86457186937332153</v>
@@ -13015,7 +13460,7 @@
         <v>304</v>
       </c>
       <c r="M111">
-        <v>0.090000003576278687</v>
+        <v>9.0000003576278687E-2</v>
       </c>
       <c r="N111">
         <v>4</v>
@@ -13033,7 +13478,7 @@
         <v>-0.54581683874130249</v>
       </c>
       <c r="S111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T111">
         <v>-1.4003623723983765</v>
@@ -13066,10 +13511,10 @@
         <v>-0.86457186937332153</v>
       </c>
       <c r="AD111">
-        <v>0.044174280017614365</v>
+        <v>4.4174280017614365E-2</v>
       </c>
       <c r="AE111">
-        <v>-0.012434203177690506</v>
+        <v>-1.2434203177690506E-2</v>
       </c>
       <c r="AF111">
         <v>1</v>
@@ -13087,13 +13532,13 @@
         <v>0</v>
       </c>
       <c r="AK111">
-        <v>-0.012434203177690506</v>
+        <v>-1.2434203177690506E-2</v>
       </c>
       <c r="AL111">
-        <v>0.078232408872344728</v>
+        <v>7.8232408872344728E-2</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:38">
       <c r="A112">
         <v>11</v>
       </c>
@@ -13110,7 +13555,8 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.3896126747131348</v>
+        <f t="shared" si="1"/>
+        <v>1.9922044325669925</v>
       </c>
       <c r="G112">
         <v>-0.83065003156661987</v>
@@ -13149,7 +13595,7 @@
         <v>-0.52069401741027832</v>
       </c>
       <c r="S112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T112">
         <v>-1.4032473564147949</v>
@@ -13182,10 +13628,10 @@
         <v>-0.83065003156661987</v>
       </c>
       <c r="AD112">
-        <v>0.018582820892333984</v>
+        <v>1.8582820892333984E-2</v>
       </c>
       <c r="AE112">
-        <v>-0.012098299339413643</v>
+        <v>-1.2098299339413643E-2</v>
       </c>
       <c r="AF112">
         <v>1</v>
@@ -13203,13 +13649,13 @@
         <v>0</v>
       </c>
       <c r="AK112">
-        <v>-0.012098299339413643</v>
+        <v>-1.2098299339413643E-2</v>
       </c>
       <c r="AL112">
-        <v>0.07455795554772604</v>
+        <v>7.455795554772604E-2</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:38">
       <c r="A113">
         <v>11.100000000000001</v>
       </c>
@@ -13226,7 +13672,8 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.0540013313293457</v>
+        <f t="shared" si="1"/>
+        <v>1.9907546747687292</v>
       </c>
       <c r="G113">
         <v>-0.72553640604019165</v>
@@ -13247,7 +13694,7 @@
         <v>293</v>
       </c>
       <c r="M113">
-        <v>0.019999999552965164</v>
+        <v>1.9999999552965164E-2</v>
       </c>
       <c r="N113">
         <v>4</v>
@@ -13265,19 +13712,19 @@
         <v>-0.50337570905685425</v>
       </c>
       <c r="S113">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T113">
         <v>-1.416129469871521</v>
       </c>
       <c r="U113">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V113">
         <v>-14.6612548828125</v>
       </c>
       <c r="W113">
-        <v>0.006103515625</v>
+        <v>6.103515625E-3</v>
       </c>
       <c r="X113">
         <v>-0.50760668516159058</v>
@@ -13298,10 +13745,10 @@
         <v>-0.72553640604019165</v>
       </c>
       <c r="AD113">
-        <v>0.0073787583969533443</v>
+        <v>7.3787583969533443E-3</v>
       </c>
       <c r="AE113">
-        <v>-0.011749996803700924</v>
+        <v>-1.1749996803700924E-2</v>
       </c>
       <c r="AF113">
         <v>1</v>
@@ -13319,13 +13766,13 @@
         <v>0</v>
       </c>
       <c r="AK113">
-        <v>-0.011749996803700924</v>
+        <v>-1.1749996803700924E-2</v>
       </c>
       <c r="AL113">
-        <v>0.073352769173653187</v>
+        <v>7.3352769173653187E-2</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:38">
       <c r="A114">
         <v>11.200000000000001</v>
       </c>
@@ -13342,7 +13789,8 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.4033366441726685</v>
+        <f t="shared" si="1"/>
+        <v>1.9894883748558805</v>
       </c>
       <c r="G114">
         <v>-0.5623965859413147</v>
@@ -13363,7 +13811,7 @@
         <v>122</v>
       </c>
       <c r="M114">
-        <v>0.059999998658895493</v>
+        <v>5.9999998658895493E-2</v>
       </c>
       <c r="N114">
         <v>4</v>
@@ -13381,13 +13829,13 @@
         <v>-0.49084091186523438</v>
       </c>
       <c r="S114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T114">
         <v>-1.4263738393783569</v>
       </c>
       <c r="U114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V114">
         <v>-14.1558837890625</v>
@@ -13414,10 +13862,10 @@
         <v>-0.5623965859413147</v>
       </c>
       <c r="AD114">
-        <v>0.0026104410644620657</v>
+        <v>2.6104410644620657E-3</v>
       </c>
       <c r="AE114">
-        <v>-0.011370128951966763</v>
+        <v>-1.1370128951966763E-2</v>
       </c>
       <c r="AF114">
         <v>1</v>
@@ -13435,15 +13883,15 @@
         <v>0</v>
       </c>
       <c r="AK114">
-        <v>-0.011370128951966763</v>
+        <v>-1.1370128951966763E-2</v>
       </c>
       <c r="AL114">
-        <v>0.077403385684597148</v>
+        <v>7.7403385684597148E-2</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:38">
       <c r="A115">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="B115">
         <v>-0.46512085199356079</v>
@@ -13458,7 +13906,8 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>3.0156934261322021</v>
+        <f t="shared" si="1"/>
+        <v>1.9885068076432153</v>
       </c>
       <c r="G115">
         <v>-0.28178471326828003</v>
@@ -13479,7 +13928,7 @@
         <v>272</v>
       </c>
       <c r="M115">
-        <v>0.090000003576278687</v>
+        <v>9.0000003576278687E-2</v>
       </c>
       <c r="N115">
         <v>4</v>
@@ -13497,13 +13946,13 @@
         <v>-0.46130654215812683</v>
       </c>
       <c r="S115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T115">
         <v>-1.4838788509368896</v>
       </c>
       <c r="U115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V115">
         <v>-12.3321533203125</v>
@@ -13530,10 +13979,10 @@
         <v>-0.28178471326828003</v>
       </c>
       <c r="AD115">
-        <v>0.00065316265681758523</v>
+        <v>6.5316265681758523E-4</v>
       </c>
       <c r="AE115">
-        <v>-0.010882672853767872</v>
+        <v>-1.0882672853767872E-2</v>
       </c>
       <c r="AF115">
         <v>1</v>
@@ -13551,13 +14000,13 @@
         <v>0</v>
       </c>
       <c r="AK115">
-        <v>-0.010882672853767872</v>
+        <v>-1.0882672853767872E-2</v>
       </c>
       <c r="AL115">
-        <v>0.068826781151079652</v>
+        <v>6.8826781151079652E-2</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:38">
       <c r="A116">
         <v>11.4</v>
       </c>
@@ -13574,7 +14023,8 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0.47798243165016174</v>
+        <f t="shared" si="1"/>
+        <v>1.9880150005403834</v>
       </c>
       <c r="G116">
         <v>0.13483476638793945</v>
@@ -13613,13 +14063,13 @@
         <v>-0.42995351552963257</v>
       </c>
       <c r="S116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T116">
         <v>-1.5430816411972046</v>
       </c>
       <c r="U116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V116">
         <v>-8.514404296875</v>
@@ -13646,10 +14096,10 @@
         <v>0.13483476638793945</v>
       </c>
       <c r="AD116">
-        <v>0.00012245490506757051</v>
+        <v>1.2245490506757051E-4</v>
       </c>
       <c r="AE116">
-        <v>-0.010321461595594883</v>
+        <v>-1.0321461595594883E-2</v>
       </c>
       <c r="AF116">
         <v>1</v>
@@ -13667,13 +14117,13 @@
         <v>0</v>
       </c>
       <c r="AK116">
-        <v>-0.010321461595594883</v>
+        <v>-1.0321461595594883E-2</v>
       </c>
       <c r="AL116">
-        <v>0.072913175188889068</v>
+        <v>7.2913175188889068E-2</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:38">
       <c r="A117">
         <v>11.5</v>
       </c>
@@ -13690,7 +14140,8 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.41949182748794556</v>
+        <f t="shared" si="1"/>
+        <v>1.9882503316023461</v>
       </c>
       <c r="G117">
         <v>0.60948240756988525</v>
@@ -13729,13 +14180,13 @@
         <v>-0.39113733172416687</v>
       </c>
       <c r="S117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T117">
         <v>-1.5880581140518188</v>
       </c>
       <c r="U117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V117">
         <v>-2.318115234375</v>
@@ -13762,10 +14213,10 @@
         <v>0.60948240756988525</v>
       </c>
       <c r="AD117">
-        <v>0.0063185421749949455</v>
+        <v>6.3185421749949455E-3</v>
       </c>
       <c r="AE117">
-        <v>-0.0096740415319800377</v>
+        <v>-9.6740415319800377E-3</v>
       </c>
       <c r="AF117">
         <v>1</v>
@@ -13780,16 +14231,16 @@
         <v>0.73969589083243803</v>
       </c>
       <c r="AJ117">
-        <v>0.02999996580183506</v>
+        <v>2.999996580183506E-2</v>
       </c>
       <c r="AK117">
-        <v>-0.0096740415319800377</v>
+        <v>-9.6740415319800377E-3</v>
       </c>
       <c r="AL117">
-        <v>0.069410654305141706</v>
+        <v>6.9410654305141706E-2</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:38">
       <c r="A118">
         <v>11.600000000000001</v>
       </c>
@@ -13806,7 +14257,8 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.6433382034301758</v>
+        <f t="shared" si="1"/>
+        <v>1.9893140790768538</v>
       </c>
       <c r="G118">
         <v>0.75822228193283081</v>
@@ -13845,13 +14297,13 @@
         <v>-0.46001780033111572</v>
       </c>
       <c r="S118">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T118">
         <v>-1.6276029348373413</v>
       </c>
       <c r="U118">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V118">
         <v>1.922607421875</v>
@@ -13878,10 +14330,10 @@
         <v>0.75822228193283081</v>
       </c>
       <c r="AD118">
-        <v>0.097625039517879486</v>
+        <v>9.7625039517879486E-2</v>
       </c>
       <c r="AE118">
-        <v>-0.0091360472142696381</v>
+        <v>-9.1360472142696381E-3</v>
       </c>
       <c r="AF118">
         <v>1</v>
@@ -13899,13 +14351,13 @@
         <v>-0.23000000417232513</v>
       </c>
       <c r="AK118">
-        <v>-0.0091360472142696381</v>
+        <v>-9.1360472142696381E-3</v>
       </c>
       <c r="AL118">
-        <v>0.035547556559354154</v>
+        <v>3.5547556559354154E-2</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:38">
       <c r="A119">
         <v>11.700000000000001</v>
       </c>
@@ -13922,7 +14374,8 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>2.1600003242492676</v>
+        <f t="shared" si="1"/>
+        <v>1.9906374266050251</v>
       </c>
       <c r="G119">
         <v>0.77021986246109009</v>
@@ -13961,13 +14414,13 @@
         <v>-0.4820311963558197</v>
       </c>
       <c r="S119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T119">
         <v>-1.6243534088134766</v>
       </c>
       <c r="U119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V119">
         <v>2.4334716796875</v>
@@ -13997,7 +14450,7 @@
         <v>0.13932089507579803</v>
       </c>
       <c r="AE119">
-        <v>-0.003467353293672204</v>
+        <v>-3.467353293672204E-3</v>
       </c>
       <c r="AF119">
         <v>1</v>
@@ -14015,15 +14468,15 @@
         <v>-3.1200001239776611</v>
       </c>
       <c r="AK119">
-        <v>-0.003467353293672204</v>
+        <v>-3.467353293672204E-3</v>
       </c>
       <c r="AL119">
-        <v>0.062737579285985223</v>
+        <v>6.2737579285985223E-2</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:38">
       <c r="A120">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="B120">
         <v>-0.51393318176269531</v>
@@ -14038,7 +14491,8 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>2.8729579448699951</v>
+        <f t="shared" si="1"/>
+        <v>1.9919817138614455</v>
       </c>
       <c r="G120">
         <v>0.7886473536491394</v>
@@ -14077,13 +14531,13 @@
         <v>-0.55112683773040771</v>
       </c>
       <c r="S120">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T120">
         <v>-1.6376110315322876</v>
       </c>
       <c r="U120">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V120">
         <v>3.1585693359375</v>
@@ -14113,7 +14567,7 @@
         <v>0.1216474324464798</v>
       </c>
       <c r="AE120">
-        <v>-0.0090003255754709244</v>
+        <v>-9.0003255754709244E-3</v>
       </c>
       <c r="AF120">
         <v>1</v>
@@ -14131,13 +14585,13 @@
         <v>0</v>
       </c>
       <c r="AK120">
-        <v>-0.0090003255754709244</v>
+        <v>-9.0003255754709244E-3</v>
       </c>
       <c r="AL120">
-        <v>0.069703161171425387</v>
+        <v>6.9703161171425387E-2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:38">
       <c r="A121">
         <v>11.9</v>
       </c>
@@ -14154,7 +14608,8 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.52520167827606201</v>
+        <f t="shared" si="1"/>
+        <v>1.9933581631572772</v>
       </c>
       <c r="G121">
         <v>0.80761408805847168</v>
@@ -14193,13 +14648,13 @@
         <v>-0.62187337875366211</v>
       </c>
       <c r="S121">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T121">
         <v>-1.6211789846420288</v>
       </c>
       <c r="U121">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V121">
         <v>3.988037109375</v>
@@ -14226,10 +14681,10 @@
         <v>0.80761408805847168</v>
       </c>
       <c r="AD121">
-        <v>0.089221440255641937</v>
+        <v>8.9221440255641937E-2</v>
       </c>
       <c r="AE121">
-        <v>-0.0088796988129615784</v>
+        <v>-8.8796988129615784E-3</v>
       </c>
       <c r="AF121">
         <v>1</v>
@@ -14244,15 +14699,17 @@
         <v>0.66288251143683874</v>
       </c>
       <c r="AJ121">
-        <v>-0.06000007688999176</v>
+        <v>-6.000007688999176E-2</v>
       </c>
       <c r="AK121">
-        <v>-0.0088796988129615784</v>
+        <v>-8.8796988129615784E-3</v>
       </c>
       <c r="AL121">
-        <v>0.041209168414263697</v>
+        <v>4.1209168414263697E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>